--- a/2024-2/Evaluación de proyectos/Excels/Estudio_C1.xlsx
+++ b/2024-2/Evaluación de proyectos/Excels/Estudio_C1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IVAN\Desktop\Codes\Apuntes_2024\2024-2\Evaluación de proyectos\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82AD091-7735-4C49-BF33-B06AE34A2768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36655C6D-B7B1-4759-B779-5E20135431FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E2B48C4-17E3-4387-8B2C-BD530D7BDFF8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t>AYUDANTÍA</t>
   </si>
@@ -184,6 +184,66 @@
   </si>
   <si>
     <t>JUBILACIÓN</t>
+  </si>
+  <si>
+    <t>Expectativa de vida</t>
+  </si>
+  <si>
+    <t>Sueldo mensual</t>
+  </si>
+  <si>
+    <t>13% AFP</t>
+  </si>
+  <si>
+    <t>7% Isapre</t>
+  </si>
+  <si>
+    <t>Sueldo descontado</t>
+  </si>
+  <si>
+    <t>Impuesto 10%</t>
+  </si>
+  <si>
+    <t>Sueldo liquido</t>
+  </si>
+  <si>
+    <t>VIDA LABORAL (AÑOS)</t>
+  </si>
+  <si>
+    <t>VIDA LABORAL (MESES)</t>
+  </si>
+  <si>
+    <t>AÑOS JUBILACION</t>
+  </si>
+  <si>
+    <t>MESES JUBILACION</t>
+  </si>
+  <si>
+    <t>FONDO ACUMULADO JUBILACION</t>
+  </si>
+  <si>
+    <t>RENTABILIDAD AFP AL MES</t>
+  </si>
+  <si>
+    <t>JUBILACION MENSUAL</t>
+  </si>
+  <si>
+    <t>MONTO ADICIONAL DESEADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOMBRE </t>
+  </si>
+  <si>
+    <t>JUBILACIÓN DESEADA</t>
+  </si>
+  <si>
+    <t>FONDO ACUMULADO DESEADO</t>
+  </si>
+  <si>
+    <t>MONTO AFP POR MES</t>
+  </si>
+  <si>
+    <t>INCREMENTO AL FONDO PREVISIONAL</t>
   </si>
 </sst>
 </file>
@@ -272,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -559,128 +619,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -689,18 +727,6 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -713,68 +739,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -783,16 +760,195 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
@@ -1581,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E42C7D-F581-42F8-AD0E-E228090ADEFE}">
   <dimension ref="A3:W107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="R73" sqref="R73"/>
+    <sheetView tabSelected="1" topLeftCell="B57" workbookViewId="0">
+      <selection activeCell="V85" sqref="V85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,194 +1748,196 @@
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="4"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="68"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="7"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="71"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="49">
+      <c r="M17" s="75"/>
+      <c r="N17" s="17">
         <v>3000</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32">
+      <c r="E18" s="91"/>
+      <c r="F18" s="8">
         <v>1200</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="24">
+      <c r="M18" s="77"/>
+      <c r="N18" s="5">
         <v>0.03</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35">
+      <c r="E19" s="93"/>
+      <c r="F19" s="9">
         <v>0.05</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="17"/>
-      <c r="N19" s="26">
+      <c r="M19" s="87"/>
+      <c r="N19" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38">
+      <c r="E20" s="95"/>
+      <c r="F20" s="10">
         <v>1</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="17"/>
-      <c r="N20" s="26">
+      <c r="M20" s="87"/>
+      <c r="N20" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41" t="s">
+      <c r="E21" s="97"/>
+      <c r="F21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="17"/>
-      <c r="N21" s="50">
+      <c r="M21" s="87"/>
+      <c r="N21" s="18">
         <f>(1+N18/N19)^1 -1</f>
         <v>2.4999999999999467E-3</v>
       </c>
     </row>
     <row r="22" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="74" t="s">
+      <c r="L22" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="75"/>
-      <c r="N22" s="76">
+      <c r="M22" s="89"/>
+      <c r="N22" s="33">
         <f>-PMT(N21,N19,,N17)</f>
         <v>246.5810962754669</v>
       </c>
     </row>
     <row r="23" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73">
+      <c r="E23" s="83"/>
+      <c r="F23" s="32">
         <f>F18/(1+F19)</f>
         <v>1142.8571428571429</v>
       </c>
     </row>
     <row r="24" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44">
+      <c r="E24" s="85"/>
+      <c r="F24" s="12">
         <f>-PV(F19,F20,,F18)</f>
         <v>1142.8571428571429</v>
       </c>
     </row>
     <row r="35" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="49">
+      <c r="C36" s="75"/>
+      <c r="D36" s="17">
         <v>25000</v>
       </c>
-      <c r="K36" s="51" t="s">
+      <c r="K36" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="77"/>
-      <c r="Q36" s="51" t="s">
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="65"/>
+      <c r="Q36" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="77"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="65"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="24">
+      <c r="C37" s="77"/>
+      <c r="D37" s="5">
         <v>0.04</v>
       </c>
       <c r="U37" t="s">
@@ -1787,55 +1945,55 @@
       </c>
     </row>
     <row r="38" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29">
+      <c r="C38" s="79"/>
+      <c r="D38" s="7">
         <v>5</v>
       </c>
       <c r="L38" t="s">
         <v>2</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M38" s="1">
         <v>300</v>
       </c>
-      <c r="R38" s="47" t="s">
+      <c r="R38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="S38" s="14">
+      <c r="S38" s="1">
         <v>110</v>
       </c>
       <c r="U38">
         <v>1</v>
       </c>
-      <c r="V38" s="46">
+      <c r="V38" s="14">
         <f>PV($S$39,U38,,$S$38)</f>
         <v>-103.77358490566037</v>
       </c>
     </row>
     <row r="39" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M39" s="46"/>
+      <c r="M39" s="14"/>
       <c r="R39" t="s">
         <v>23</v>
       </c>
-      <c r="S39" s="15">
+      <c r="S39" s="2">
         <v>0.06</v>
       </c>
       <c r="U39">
         <v>2</v>
       </c>
-      <c r="V39" s="46">
+      <c r="V39" s="14">
         <f t="shared" ref="V39:V40" si="0">PV($S$39,U39,,$S$38)</f>
         <v>-97.899608401566383</v>
       </c>
     </row>
     <row r="40" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55">
+      <c r="C40" s="81"/>
+      <c r="D40" s="19">
         <f>-PMT(D37,D38,D36)</f>
         <v>5615.6778373258485</v>
       </c>
@@ -1848,843 +2006,1097 @@
       <c r="U40">
         <v>3</v>
       </c>
-      <c r="V40" s="46">
+      <c r="V40" s="14">
         <f t="shared" si="0"/>
         <v>-92.358121133553183</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="58"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="60" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="S41" s="46">
+      <c r="S41" s="14">
         <f>-PV(S39,S40,S38)</f>
         <v>294.03131444078036</v>
       </c>
-      <c r="V41" s="46">
+      <c r="V41" s="14">
         <f>SUM(V38:V40)</f>
         <v>-294.03131444077997</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="56" t="s">
+      <c r="E42" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="62">
+      <c r="F42" s="26">
         <f>D36</f>
         <v>25000</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="61">
+      <c r="B43" s="25">
         <v>1</v>
       </c>
-      <c r="C43" s="57">
+      <c r="C43" s="21">
         <f>F42*$D$37</f>
         <v>1000</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D43" s="16">
         <f>$D$40</f>
         <v>5615.6778373258485</v>
       </c>
-      <c r="E43" s="48">
+      <c r="E43" s="16">
         <f>D43-C43</f>
         <v>4615.6778373258485</v>
       </c>
-      <c r="F43" s="63">
+      <c r="F43" s="27">
         <f>F42-E43</f>
         <v>20384.322162674151</v>
       </c>
-      <c r="M43" s="78" t="s">
+      <c r="M43" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="61">
+      <c r="B44" s="25">
         <v>2</v>
       </c>
-      <c r="C44" s="57">
+      <c r="C44" s="21">
         <f t="shared" ref="C44:C47" si="1">F43*$D$37</f>
         <v>815.3728865069661</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="16">
         <f t="shared" ref="D44:D47" si="2">$D$40</f>
         <v>5615.6778373258485</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="16">
         <f t="shared" ref="E44:E47" si="3">D44-C44</f>
         <v>4800.3049508188824</v>
       </c>
-      <c r="F44" s="63">
+      <c r="F44" s="27">
         <f t="shared" ref="F44:F47" si="4">F43-E44</f>
         <v>15584.017211855269</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="61">
+      <c r="B45" s="25">
         <v>3</v>
       </c>
-      <c r="C45" s="57">
+      <c r="C45" s="21">
         <f t="shared" si="1"/>
         <v>623.36068847421075</v>
       </c>
-      <c r="D45" s="48">
+      <c r="D45" s="16">
         <f t="shared" si="2"/>
         <v>5615.6778373258485</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="16">
         <f t="shared" si="3"/>
         <v>4992.3171488516382</v>
       </c>
-      <c r="F45" s="63">
+      <c r="F45" s="27">
         <f t="shared" si="4"/>
         <v>10591.700063003631</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="61">
+      <c r="B46" s="25">
         <v>4</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C46" s="21">
         <f t="shared" si="1"/>
         <v>423.66800252014525</v>
       </c>
-      <c r="D46" s="48">
+      <c r="D46" s="16">
         <f t="shared" si="2"/>
         <v>5615.6778373258485</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="16">
         <f t="shared" si="3"/>
         <v>5192.0098348057036</v>
       </c>
-      <c r="F46" s="63">
+      <c r="F46" s="27">
         <f t="shared" si="4"/>
         <v>5399.6902281979274</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="64">
+      <c r="B47" s="28">
         <v>5</v>
       </c>
-      <c r="C47" s="65">
+      <c r="C47" s="29">
         <f t="shared" si="1"/>
         <v>215.9876091279171</v>
       </c>
-      <c r="D47" s="66">
+      <c r="D47" s="30">
         <f t="shared" si="2"/>
         <v>5615.6778373258485</v>
       </c>
-      <c r="E47" s="66">
+      <c r="E47" s="30">
         <f t="shared" si="3"/>
         <v>5399.690228197931</v>
       </c>
-      <c r="F47" s="67">
+      <c r="F47" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="70">
+      <c r="D49" s="51"/>
+      <c r="E49" s="31">
         <f>SUM(C43:C47)</f>
         <v>3078.3891866292392</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="4"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
+      <c r="T51" s="67"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="68"/>
     </row>
     <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="7"/>
-    </row>
-    <row r="71" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B72" s="80" t="s">
+      <c r="A52" s="69"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="70"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="70"/>
+      <c r="T52" s="70"/>
+      <c r="U52" s="70"/>
+      <c r="V52" s="70"/>
+      <c r="W52" s="71"/>
+    </row>
+    <row r="71" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="81"/>
-      <c r="D72" s="82">
+      <c r="C72" s="73"/>
+      <c r="D72" s="35">
         <v>65000000</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B73" s="83" t="s">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B73" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="79"/>
-      <c r="D73" s="84">
+      <c r="C73" s="56"/>
+      <c r="D73" s="36">
         <v>0.08</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="N73" s="22"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q73" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="S73" s="22"/>
+      <c r="T73" s="23"/>
+      <c r="U73" s="23"/>
+      <c r="V73" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W73" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B74" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="56"/>
+      <c r="D74" s="37">
+        <v>2</v>
+      </c>
+      <c r="N74" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="P73" s="1"/>
-      <c r="Q73" t="s">
+      <c r="O74" s="87"/>
+      <c r="P74" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q74" s="6">
+        <v>25</v>
+      </c>
+      <c r="S74" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="T74" s="87"/>
+      <c r="U74" s="87"/>
+      <c r="V74" s="108">
+        <v>2E-3</v>
+      </c>
+      <c r="W74" s="109">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="58"/>
+      <c r="D75" s="38">
+        <v>8</v>
+      </c>
+      <c r="N75" s="86" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B74" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="79"/>
-      <c r="D74" s="85">
-        <v>2</v>
-      </c>
-      <c r="N74" t="s">
-        <v>45</v>
-      </c>
-      <c r="O74" s="1">
-        <v>25</v>
-      </c>
-      <c r="P74" s="1"/>
-      <c r="Q74">
+      <c r="O75" s="87"/>
+      <c r="P75" s="4">
         <v>65</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="87"/>
-      <c r="D75" s="88">
-        <v>8</v>
-      </c>
-      <c r="N75" t="s">
+      <c r="Q75" s="6">
+        <v>60</v>
+      </c>
+      <c r="S75" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="T75" s="87"/>
+      <c r="U75" s="87"/>
+      <c r="V75" s="16">
+        <f>-FV(V74,P78,P82)</f>
+        <v>174677985.10748067</v>
+      </c>
+      <c r="W75" s="110">
+        <f>-FV(W74,Q78,Q82)</f>
+        <v>114144635.19729827</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N76" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="O76" s="87"/>
+      <c r="P76" s="4">
+        <v>85</v>
+      </c>
+      <c r="Q76" s="6">
+        <v>90</v>
+      </c>
+      <c r="S76" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="T76" s="79"/>
+      <c r="U76" s="79"/>
+      <c r="V76" s="30">
+        <f>PMT(V74,P80,-V75)</f>
+        <v>917137.57956119278</v>
+      </c>
+      <c r="W76" s="111">
+        <f>PMT(W74,Q80,-W75)</f>
+        <v>445097.15018392843</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="62"/>
+      <c r="H77" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" s="61"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="61"/>
+      <c r="L77" s="62"/>
+      <c r="N77" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="O77" s="87"/>
+      <c r="P77" s="4">
+        <f>P75-P74</f>
+        <v>40</v>
+      </c>
+      <c r="Q77" s="6">
+        <f>Q75-Q74</f>
+        <v>35</v>
+      </c>
+      <c r="S77" s="49"/>
+      <c r="T77" s="49"/>
+      <c r="U77" s="49"/>
+      <c r="V77" s="14"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N78" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="O78" s="87"/>
+      <c r="P78" s="4">
+        <f>P77*12</f>
+        <v>480</v>
+      </c>
+      <c r="Q78" s="6">
+        <f>Q77*12</f>
+        <v>420</v>
+      </c>
+      <c r="S78" s="22"/>
+      <c r="T78" s="112"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="W78" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="O75" s="1">
-        <v>25</v>
-      </c>
-      <c r="P75" s="1"/>
-      <c r="Q75">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="93"/>
-      <c r="D77" s="93"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="94"/>
-      <c r="H77" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="I77" s="93"/>
-      <c r="J77" s="93"/>
-      <c r="K77" s="93"/>
-      <c r="L77" s="94"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B79" s="16" t="s">
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B79" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="45">
+      <c r="C79" s="59"/>
+      <c r="D79" s="13">
         <f>EFFECT(D73,D74)</f>
         <v>8.1600000000000117E-2</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="14">
+      <c r="I79" s="49"/>
+      <c r="J79" s="1">
         <f>F85</f>
         <v>45245009.51578369</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="1" t="s">
+      <c r="N79" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="O79" s="87"/>
+      <c r="P79" s="4">
+        <f>P76-P75</f>
+        <v>20</v>
+      </c>
+      <c r="Q79" s="6">
+        <f>Q76-Q75</f>
+        <v>30</v>
+      </c>
+      <c r="S79" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="T79" s="113"/>
+      <c r="U79" s="107"/>
+      <c r="V79" s="3">
+        <v>300000</v>
+      </c>
+      <c r="W79" s="39">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="46">
+      <c r="C80" s="49"/>
+      <c r="D80" s="14">
         <f>-PMT(D79,D75,D72)</f>
         <v>11379731.896831045</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="I80" s="1"/>
-      <c r="J80" s="15">
+      <c r="I80" s="49"/>
+      <c r="J80" s="2">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="58"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="60" t="s">
+      <c r="N80" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="O80" s="87"/>
+      <c r="P80" s="4">
+        <f>12*P79</f>
+        <v>240</v>
+      </c>
+      <c r="Q80" s="6">
+        <f>12*Q79</f>
+        <v>360</v>
+      </c>
+      <c r="S80" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="T80" s="113"/>
+      <c r="U80" s="107"/>
+      <c r="V80" s="16">
+        <f>V76+V79</f>
+        <v>1217137.5795611928</v>
+      </c>
+      <c r="W80" s="110">
+        <f>W76+W79</f>
+        <v>945097.15018392843</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B81" s="22"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="I81" s="1"/>
+      <c r="I81" s="49"/>
       <c r="J81">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="61" t="s">
+      <c r="N81" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="O81" s="87"/>
+      <c r="P81" s="3">
+        <v>1670000</v>
+      </c>
+      <c r="Q81" s="39">
+        <f>P81*0.8</f>
+        <v>1336000</v>
+      </c>
+      <c r="S81" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="T81" s="113"/>
+      <c r="U81" s="107"/>
+      <c r="V81" s="16">
+        <f>-PV(V74,P80,V80)</f>
+        <v>231815972.5807614</v>
+      </c>
+      <c r="W81" s="110">
+        <f>-PV(W74,Q80,W80)</f>
+        <v>242369040.98166293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="20" t="s">
+      <c r="D82" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="56" t="s">
+      <c r="E82" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F82" s="89">
+      <c r="F82" s="39">
         <f>D72</f>
         <v>65000000</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I82" s="1"/>
-      <c r="J82" s="46">
+      <c r="I82" s="49"/>
+      <c r="J82" s="14">
         <f>-PMT(J80,J81,J79)</f>
         <v>16614355.001017952</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="61">
+      <c r="N82" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="O82" s="87"/>
+      <c r="P82" s="3">
+        <f>0.13*P81</f>
+        <v>217100</v>
+      </c>
+      <c r="Q82" s="39">
+        <f>0.13*Q81</f>
+        <v>173680</v>
+      </c>
+      <c r="S82" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="T82" s="113"/>
+      <c r="U82" s="107"/>
+      <c r="V82" s="16">
+        <f>-PMT(V74,P78,,V81)</f>
+        <v>288114.42733505159</v>
+      </c>
+      <c r="W82" s="110">
+        <f>-PMT(W74,Q78,,W81)</f>
+        <v>368783.47339701263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="25">
         <v>1</v>
       </c>
-      <c r="C83" s="48">
+      <c r="C83" s="16">
         <f>F82*$D$79</f>
         <v>5304000.0000000075</v>
       </c>
-      <c r="D83" s="48">
+      <c r="D83" s="16">
         <f>$D$80</f>
         <v>11379731.896831045</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E83" s="4">
         <f>D83-C83</f>
         <v>6075731.8968310375</v>
       </c>
-      <c r="F83" s="89">
+      <c r="F83" s="39">
         <f>F82-E83</f>
         <v>58924268.103168964</v>
       </c>
-      <c r="H83" s="58"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="60" t="s">
+      <c r="H83" s="22"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="61">
+      <c r="N83" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="O83" s="87"/>
+      <c r="P83" s="3">
+        <f>0.07*P81</f>
+        <v>116900.00000000001</v>
+      </c>
+      <c r="Q83" s="39">
+        <f>0.07*Q81</f>
+        <v>93520.000000000015</v>
+      </c>
+      <c r="S83" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="T83" s="114"/>
+      <c r="U83" s="105"/>
+      <c r="V83" s="30">
+        <f>V82-P82</f>
+        <v>71014.427335051587</v>
+      </c>
+      <c r="W83" s="111">
+        <f>W82-Q82</f>
+        <v>195103.47339701263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B84" s="25">
         <v>2</v>
       </c>
-      <c r="C84" s="48">
+      <c r="C84" s="16">
         <f t="shared" ref="C84:C90" si="5">F83*$D$79</f>
         <v>4808220.2772185942</v>
       </c>
-      <c r="D84" s="48">
+      <c r="D84" s="16">
         <f t="shared" ref="D84:D90" si="6">$D$80</f>
         <v>11379731.896831045</v>
       </c>
-      <c r="E84" s="20">
+      <c r="E84" s="4">
         <f t="shared" ref="E84:E90" si="7">D84-C84</f>
         <v>6571511.6196124507</v>
       </c>
-      <c r="F84" s="89">
+      <c r="F84" s="39">
         <f t="shared" ref="F84:F90" si="8">F83-E84</f>
         <v>52352756.483556516</v>
       </c>
-      <c r="H84" s="61" t="s">
+      <c r="H84" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I84" s="20" t="s">
+      <c r="I84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J84" s="20" t="s">
+      <c r="J84" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K84" s="20" t="s">
+      <c r="K84" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L84" s="89">
+      <c r="L84" s="39">
         <f>J79</f>
         <v>45245009.51578369</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="95">
+      <c r="N84" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="O84" s="87"/>
+      <c r="P84" s="3">
+        <f>P81-P82-P83</f>
+        <v>1336000</v>
+      </c>
+      <c r="Q84" s="39">
+        <f>Q81-Q82-Q83</f>
+        <v>1068800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B85" s="42">
         <v>3</v>
       </c>
-      <c r="C85" s="96">
+      <c r="C85" s="43">
         <f t="shared" si="5"/>
         <v>4271984.9290582174</v>
       </c>
-      <c r="D85" s="96">
+      <c r="D85" s="43">
         <f t="shared" si="6"/>
         <v>11379731.896831045</v>
       </c>
-      <c r="E85" s="97">
+      <c r="E85" s="44">
         <f t="shared" si="7"/>
         <v>7107746.9677728275</v>
       </c>
-      <c r="F85" s="98">
+      <c r="F85" s="45">
         <f t="shared" si="8"/>
         <v>45245009.51578369</v>
       </c>
-      <c r="H85" s="61">
+      <c r="H85" s="25">
         <v>1</v>
       </c>
-      <c r="I85" s="18">
+      <c r="I85" s="3">
         <f>L84*$J$80</f>
         <v>2262250.4757891847</v>
       </c>
-      <c r="J85" s="48">
+      <c r="J85" s="16">
         <f>$J$82</f>
         <v>16614355.001017952</v>
       </c>
-      <c r="K85" s="20">
+      <c r="K85" s="4">
         <f>J85-I85</f>
         <v>14352104.525228769</v>
       </c>
-      <c r="L85" s="89">
+      <c r="L85" s="39">
         <f>L84-K85</f>
         <v>30892904.990554921</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="61">
+      <c r="N85" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="O85" s="87"/>
+      <c r="P85" s="3">
+        <f>0.1*P84</f>
+        <v>133600</v>
+      </c>
+      <c r="Q85" s="39">
+        <f>0.1*Q84</f>
+        <v>106880</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="25">
         <v>4</v>
       </c>
-      <c r="C86" s="48">
+      <c r="C86" s="16">
         <f t="shared" si="5"/>
         <v>3691992.7764879544</v>
       </c>
-      <c r="D86" s="48">
+      <c r="D86" s="16">
         <f t="shared" si="6"/>
         <v>11379731.896831045</v>
       </c>
-      <c r="E86" s="20">
+      <c r="E86" s="4">
         <f t="shared" si="7"/>
         <v>7687739.120343091</v>
       </c>
-      <c r="F86" s="89">
+      <c r="F86" s="39">
         <f t="shared" si="8"/>
         <v>37557270.395440601</v>
       </c>
-      <c r="H86" s="61">
+      <c r="H86" s="25">
         <v>2</v>
       </c>
-      <c r="I86" s="18">
+      <c r="I86" s="3">
         <f t="shared" ref="I86:I87" si="9">L85*$J$80</f>
         <v>1544645.2495277461</v>
       </c>
-      <c r="J86" s="48">
+      <c r="J86" s="16">
         <f t="shared" ref="J86:J87" si="10">$J$82</f>
         <v>16614355.001017952</v>
       </c>
-      <c r="K86" s="20">
+      <c r="K86" s="4">
         <f t="shared" ref="K86:K87" si="11">J86-I86</f>
         <v>15069709.751490206</v>
       </c>
-      <c r="L86" s="89">
+      <c r="L86" s="39">
         <f t="shared" ref="L86:L87" si="12">L85-K86</f>
         <v>15823195.239064716</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="61">
+      <c r="N86" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="O86" s="79"/>
+      <c r="P86" s="46">
+        <f>P84-P85</f>
+        <v>1202400</v>
+      </c>
+      <c r="Q86" s="41">
+        <f>Q84-Q85</f>
+        <v>961920</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="25">
         <v>5</v>
       </c>
-      <c r="C87" s="48">
+      <c r="C87" s="16">
         <f t="shared" si="5"/>
         <v>3064673.2642679573</v>
       </c>
-      <c r="D87" s="48">
+      <c r="D87" s="16">
         <f t="shared" si="6"/>
         <v>11379731.896831045</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="4">
         <f t="shared" si="7"/>
         <v>8315058.6325630881</v>
       </c>
-      <c r="F87" s="89">
+      <c r="F87" s="39">
         <f t="shared" si="8"/>
         <v>29242211.762877513</v>
       </c>
-      <c r="H87" s="64">
+      <c r="H87" s="28">
         <v>3</v>
       </c>
-      <c r="I87" s="99">
+      <c r="I87" s="46">
         <f t="shared" si="9"/>
         <v>791159.76195323584</v>
       </c>
-      <c r="J87" s="66">
+      <c r="J87" s="30">
         <f t="shared" si="10"/>
         <v>16614355.001017952</v>
       </c>
-      <c r="K87" s="90">
+      <c r="K87" s="40">
         <f t="shared" si="11"/>
         <v>15823195.239064716</v>
       </c>
-      <c r="L87" s="91">
+      <c r="L87" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="61">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B88" s="25">
         <v>6</v>
       </c>
-      <c r="C88" s="48">
+      <c r="C88" s="16">
         <f t="shared" si="5"/>
         <v>2386164.4798508086</v>
       </c>
-      <c r="D88" s="48">
+      <c r="D88" s="16">
         <f t="shared" si="6"/>
         <v>11379731.896831045</v>
       </c>
-      <c r="E88" s="20">
+      <c r="E88" s="4">
         <f t="shared" si="7"/>
         <v>8993567.4169802368</v>
       </c>
-      <c r="F88" s="89">
+      <c r="F88" s="39">
         <f t="shared" si="8"/>
         <v>20248644.345897276</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="61">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B89" s="25">
         <v>7</v>
       </c>
-      <c r="C89" s="48">
+      <c r="C89" s="16">
         <f t="shared" si="5"/>
         <v>1652289.3786252202</v>
       </c>
-      <c r="D89" s="48">
+      <c r="D89" s="16">
         <f t="shared" si="6"/>
         <v>11379731.896831045</v>
       </c>
-      <c r="E89" s="20">
+      <c r="E89" s="4">
         <f t="shared" si="7"/>
         <v>9727442.5182058252</v>
       </c>
-      <c r="F89" s="89">
+      <c r="F89" s="39">
         <f t="shared" si="8"/>
         <v>10521201.827691451</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="64">
+    <row r="90" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="28">
         <v>8</v>
       </c>
-      <c r="C90" s="66">
+      <c r="C90" s="30">
         <f t="shared" si="5"/>
         <v>858530.06913962367</v>
       </c>
-      <c r="D90" s="66">
+      <c r="D90" s="30">
         <f t="shared" si="6"/>
         <v>11379731.896831045</v>
       </c>
-      <c r="E90" s="90">
+      <c r="E90" s="40">
         <f t="shared" si="7"/>
         <v>10521201.827691421</v>
       </c>
-      <c r="F90" s="91">
+      <c r="F90" s="41">
         <f t="shared" si="8"/>
         <v>2.9802322387695313E-8</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="101" t="s">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B93" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="15">
+      <c r="C93" s="49"/>
+      <c r="D93" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1" t="s">
+      <c r="D94" s="49"/>
+      <c r="E94" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F94" s="49"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95" s="102">
+      <c r="C95" s="52">
         <f>$D$80</f>
         <v>11379731.896831045</v>
       </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="102">
+      <c r="D95" s="49"/>
+      <c r="E95" s="52">
         <f>-PV($D$93,B95,,C95)</f>
         <v>11048283.394981597</v>
       </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="46"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F95" s="49"/>
+      <c r="G95" s="14"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>2</v>
       </c>
-      <c r="C96" s="102">
+      <c r="C96" s="52">
         <f t="shared" ref="C96:C97" si="13">$D$80</f>
         <v>11379731.896831045</v>
       </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="102">
+      <c r="D96" s="49"/>
+      <c r="E96" s="52">
         <f t="shared" ref="E96:E100" si="14">-PV($D$93,B96,,C96)</f>
         <v>10726488.732991843</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="46"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="14"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>3</v>
       </c>
-      <c r="C97" s="102">
+      <c r="C97" s="52">
         <f t="shared" si="13"/>
         <v>11379731.896831045</v>
       </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="102">
+      <c r="D97" s="49"/>
+      <c r="E97" s="52">
         <f t="shared" si="14"/>
         <v>10414066.731060041</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="46"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="14"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>4</v>
       </c>
-      <c r="C98" s="102">
+      <c r="C98" s="52">
         <f>$J$82</f>
         <v>16614355.001017952</v>
       </c>
-      <c r="D98" s="1"/>
-      <c r="E98" s="102">
+      <c r="D98" s="49"/>
+      <c r="E98" s="52">
         <f t="shared" si="14"/>
         <v>14761639.227877704</v>
       </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="46"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="14"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>5</v>
       </c>
-      <c r="C99" s="102">
+      <c r="C99" s="52">
         <f t="shared" ref="C99:C100" si="15">$J$82</f>
         <v>16614355.001017952</v>
       </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="102">
+      <c r="D99" s="49"/>
+      <c r="E99" s="52">
         <f t="shared" si="14"/>
         <v>14331688.570755053</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="46"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="14"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>6</v>
       </c>
-      <c r="C100" s="102">
+      <c r="C100" s="52">
         <f t="shared" si="15"/>
         <v>16614355.001017952</v>
       </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="102">
+      <c r="D100" s="49"/>
+      <c r="E100" s="52">
         <f t="shared" si="14"/>
         <v>13914260.748305876</v>
       </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="46"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="14"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="78" t="s">
+      <c r="B101" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C101" s="78"/>
-      <c r="D101" s="78"/>
-      <c r="E101" s="103">
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="53">
         <f>SUM(E95:F100)</f>
         <v>75196427.405972108</v>
       </c>
-      <c r="F101" s="78"/>
-      <c r="G101" s="46"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="14"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="101" t="s">
+      <c r="A103" s="34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D104" s="1"/>
-      <c r="E104" s="14">
+      <c r="D104" s="49"/>
+      <c r="E104" s="1">
         <f>F85</f>
         <v>45245009.51578369</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D105" s="1"/>
+      <c r="D105" s="49"/>
       <c r="E105">
         <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="15">
+      <c r="D106" s="49"/>
+      <c r="E106" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="68" t="s">
+      <c r="C107" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D107" s="69"/>
-      <c r="E107" s="104">
+      <c r="D107" s="51"/>
+      <c r="E107" s="48">
         <f>-FV(E106,E105,,E104)</f>
         <v>46615978.549121447</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B77:F77"/>
+  <mergeCells count="77">
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="S83:U83"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A4:W5"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="H77:L77"/>
     <mergeCell ref="H80:I80"/>
     <mergeCell ref="Q36:T36"/>
@@ -2698,19 +3110,39 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="K36:N36"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A4:W5"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2728,56 +3160,56 @@
   <sheetData>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="10"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="100"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="13"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2024-2/Evaluación de proyectos/Excels/Estudio_C1.xlsx
+++ b/2024-2/Evaluación de proyectos/Excels/Estudio_C1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IVAN\Desktop\Codes\Apuntes_2024\2024-2\Evaluación de proyectos\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36655C6D-B7B1-4759-B779-5E20135431FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE53FACB-4E71-4354-A856-1D900547D0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E2B48C4-17E3-4387-8B2C-BD530D7BDFF8}"/>
   </bookViews>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
-  <si>
-    <t>AYUDANTÍA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="137">
   <si>
     <t>FORMULARIO</t>
   </si>
@@ -244,6 +241,213 @@
   </si>
   <si>
     <t>INCREMENTO AL FONDO PREVISIONAL</t>
+  </si>
+  <si>
+    <t>DATOS</t>
+  </si>
+  <si>
+    <t>CAP. INICIAL</t>
+  </si>
+  <si>
+    <t>CAP. FINAL</t>
+  </si>
+  <si>
+    <t>INTERES</t>
+  </si>
+  <si>
+    <t>FORMA 1</t>
+  </si>
+  <si>
+    <t>FORMA 2</t>
+  </si>
+  <si>
+    <t>AYUDANTÍA 2</t>
+  </si>
+  <si>
+    <t>AYUDANTÍA 1</t>
+  </si>
+  <si>
+    <t>TASA NOMIAL ANUAL</t>
+  </si>
+  <si>
+    <t>COMPOSICION TRIMESTRAL</t>
+  </si>
+  <si>
+    <t>PERIODOS (SEMESTRES)</t>
+  </si>
+  <si>
+    <t>TASA INTERES EFECTIVA</t>
+  </si>
+  <si>
+    <t>INT. ANUAL NOMINAL</t>
+  </si>
+  <si>
+    <t>COMPOSICION</t>
+  </si>
+  <si>
+    <t>CUOTAS</t>
+  </si>
+  <si>
+    <t>ANUALES</t>
+  </si>
+  <si>
+    <t>SEMESTRALES</t>
+  </si>
+  <si>
+    <t>MENSUALES</t>
+  </si>
+  <si>
+    <t>TRIMESTRALES</t>
+  </si>
+  <si>
+    <t>ANUAL</t>
+  </si>
+  <si>
+    <t>TRIMESTRAL</t>
+  </si>
+  <si>
+    <t>SEMESTRAL</t>
+  </si>
+  <si>
+    <t>MENSUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>MONTO CUOTA A PAGAR</t>
+  </si>
+  <si>
+    <t>PERIODO</t>
+  </si>
+  <si>
+    <t>CAPITAL FINAL / VF</t>
+  </si>
+  <si>
+    <t>CAPITAL INICIAL / VP</t>
+  </si>
+  <si>
+    <t>VF = CAP.FINAL</t>
+  </si>
+  <si>
+    <t>VP = CAP.INICIAL</t>
+  </si>
+  <si>
+    <t>VALOR PRESENTE DE CUOTAS PAGADAS</t>
+  </si>
+  <si>
+    <t>MULTAS</t>
+  </si>
+  <si>
+    <t>INTERES SIMPLE</t>
+  </si>
+  <si>
+    <t>TASA INTERES MENSUAL</t>
+  </si>
+  <si>
+    <t>NUM MESES</t>
+  </si>
+  <si>
+    <t>INTERES COMPUESTO</t>
+  </si>
+  <si>
+    <t>&lt;- SIMPLE</t>
+  </si>
+  <si>
+    <t>&lt;- COMPUESTO</t>
+  </si>
+  <si>
+    <t>TASA DE INTERÉS EFECTIVA SEMESTRAL</t>
+  </si>
+  <si>
+    <t>TABLA DESARROLLO BCI</t>
+  </si>
+  <si>
+    <t>TABLA DESARROLLO SANTANDER</t>
+  </si>
+  <si>
+    <t>TASA REAL EF.</t>
+  </si>
+  <si>
+    <t>Num meses</t>
+  </si>
+  <si>
+    <t>DEPOSITO A PLAZO</t>
+  </si>
+  <si>
+    <t>M. INICIAL</t>
+  </si>
+  <si>
+    <t>M.FINAL</t>
+  </si>
+  <si>
+    <t>TASA MENSUAL</t>
+  </si>
+  <si>
+    <t>TABLA DESARROLLO SANTANDER CON DP</t>
+  </si>
+  <si>
+    <t>VALOR ACTUAL PERIODO 0</t>
+  </si>
+  <si>
+    <t>TASA ANUAL</t>
+  </si>
+  <si>
+    <t>TOTAL PAGADO A VALOR ACTUAL</t>
+  </si>
+  <si>
+    <t>MULTA</t>
+  </si>
+  <si>
+    <t>SUELDO BRUTO MENSUAL 25-45 AÑOS</t>
+  </si>
+  <si>
+    <t>SUELDO BRUTO MENSUAL 45-65 AÑOS</t>
+  </si>
+  <si>
+    <t>CALCULO PRIMEROS 20 AÑOS</t>
+  </si>
+  <si>
+    <t>SUELDO MENSUAL BRUTO</t>
+  </si>
+  <si>
+    <t>SUELDO DESCONTADO</t>
+  </si>
+  <si>
+    <t>IMPUESTOS 12%</t>
+  </si>
+  <si>
+    <t>SUELDO LIQUIDO</t>
+  </si>
+  <si>
+    <t>CALCULO ULTIMOS 20 AÑOS</t>
+  </si>
+  <si>
+    <t>CALCULO PENSION</t>
+  </si>
+  <si>
+    <t>RENTABILIDAD AFP ANUAL</t>
+  </si>
+  <si>
+    <t>RENTABILIDAD EFECTIVA MENSUAL</t>
+  </si>
+  <si>
+    <t>MESES DE JUBILACION</t>
+  </si>
+  <si>
+    <t>JUBILACIÓN OBJETIVO</t>
+  </si>
+  <si>
+    <t>FONDO ACUM. ULT. AÑOS</t>
+  </si>
+  <si>
+    <t>FONDO OBJETIVO</t>
+  </si>
+  <si>
+    <t>FONDO OBJ. PRIM. AÑOS</t>
+  </si>
+  <si>
+    <t>APORTE MENS. PRIM. AÑOS</t>
   </si>
 </sst>
 </file>
@@ -256,7 +460,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +503,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,8 +551,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -693,13 +919,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -721,7 +1049,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -761,194 +1088,404 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
@@ -978,8 +1515,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>39061</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601036</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>9786</xdr:rowOff>
     </xdr:to>
@@ -1023,7 +1560,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>610532</xdr:colOff>
+      <xdr:colOff>77132</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>28841</xdr:rowOff>
     </xdr:to>
@@ -1067,7 +1604,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>496219</xdr:colOff>
+      <xdr:colOff>296194</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>162156</xdr:rowOff>
     </xdr:to>
@@ -1110,8 +1647,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>343796</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>572396</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>171737</xdr:rowOff>
     </xdr:to>
@@ -1155,7 +1692,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>372376</xdr:colOff>
+      <xdr:colOff>172351</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>162349</xdr:rowOff>
     </xdr:to>
@@ -1198,8 +1735,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>486695</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>715295</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>171927</xdr:rowOff>
     </xdr:to>
@@ -1234,6 +1771,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>562879</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>171899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8390C69E-5F61-A8C1-046C-60571C0E581B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="21459825"/>
+          <a:ext cx="6477904" cy="3219899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>48556</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>171890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52469578-821A-7296-DCD8-5C0E66BC2543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8782050" y="21336000"/>
+          <a:ext cx="6668431" cy="3153215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1241,23 +1866,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>34515</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>125951</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30304</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E6AE94-E1B5-46B8-8C0A-53FA75543816}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD7072B-C2E7-45A0-A749-2809F65C699D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1273,8 +1898,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="1162050"/>
-          <a:ext cx="1558515" cy="1649951"/>
+          <a:off x="3947160" y="1779270"/>
+          <a:ext cx="1224915" cy="775159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1285,23 +1910,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36195</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>217</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>169674</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>64992</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131506</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD7072B-C2E7-45A0-A749-2809F65C699D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E529DF70-7B95-4004-A1C4-097734C6638B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1317,8 +1942,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="765810" y="2846070"/>
-          <a:ext cx="1520407" cy="962154"/>
+          <a:off x="2341245" y="1811655"/>
+          <a:ext cx="1552797" cy="453451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1329,23 +1954,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>211455</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>287884</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>32567</xdr:rowOff>
+      <xdr:colOff>715028</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="8" name="Imagen 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EDB1B62-97AD-472B-A8F0-E3481452A340}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C09C03-F637-EB81-908D-6F4C3DA6CE83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,8 +1986,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2497455" y="1169670"/>
-          <a:ext cx="1600429" cy="1358447"/>
+          <a:off x="0" y="6172200"/>
+          <a:ext cx="4677428" cy="600159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,23 +1998,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>226695</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>255492</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>26731</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76419</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
+        <xdr:cNvPr id="11" name="Imagen 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E529DF70-7B95-4004-A1C4-097734C6638B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FEF7257-AF25-23D4-579C-8A985C0512D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,8 +2030,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2512695" y="2830830"/>
-          <a:ext cx="1552797" cy="453451"/>
+          <a:off x="5381625" y="7229475"/>
+          <a:ext cx="1571844" cy="590632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>188595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30682</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>36283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38483B5E-33B8-ECB7-2B0A-1F066CE7C23F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5459730" y="8094345"/>
+          <a:ext cx="1448002" cy="628738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>97274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE46ECDA-61D3-493E-842E-108846599A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="9258300"/>
+          <a:ext cx="4371975" cy="887849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>734308</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674A39DB-7B8C-15D7-E7A4-97BA69E16D97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333875" y="10163175"/>
+          <a:ext cx="6325483" cy="685896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1735,176 +2492,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E42C7D-F581-42F8-AD0E-E228090ADEFE}">
-  <dimension ref="A3:W107"/>
+  <dimension ref="A3:W180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B57" workbookViewId="0">
-      <selection activeCell="V85" sqref="V85"/>
+    <sheetView tabSelected="1" topLeftCell="C119" workbookViewId="0">
+      <selection activeCell="O151" sqref="O151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="68"/>
+      <c r="A4" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="66"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="71"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="75"/>
-      <c r="N17" s="17">
+      <c r="L17" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="83"/>
+      <c r="N17" s="16">
         <v>3000</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="91"/>
+      <c r="D18" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="71"/>
       <c r="F18" s="8">
         <v>1200</v>
       </c>
-      <c r="L18" s="76" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="77"/>
+      <c r="L18" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="85"/>
       <c r="N18" s="5">
         <v>0.03</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="93"/>
+      <c r="D19" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="73"/>
       <c r="F19" s="9">
         <v>0.05</v>
       </c>
-      <c r="L19" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="87"/>
+      <c r="L19" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="62"/>
       <c r="N19" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="95"/>
+      <c r="D20" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="75"/>
       <c r="F20" s="10">
         <v>1</v>
       </c>
-      <c r="L20" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="87"/>
+      <c r="L20" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="62"/>
       <c r="N20" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="77"/>
+      <c r="F21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="87"/>
-      <c r="N21" s="18">
+      <c r="L21" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="62"/>
+      <c r="N21" s="17">
         <f>(1+N18/N19)^1 -1</f>
         <v>2.4999999999999467E-3</v>
       </c>
     </row>
     <row r="22" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" s="89"/>
-      <c r="N22" s="33">
+      <c r="L22" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="87"/>
+      <c r="N22" s="32">
         <f>-PMT(N21,N19,,N17)</f>
         <v>246.5810962754669</v>
       </c>
     </row>
     <row r="23" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="32">
+      <c r="D23" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="79"/>
+      <c r="F23" s="31">
         <f>F18/(1+F19)</f>
         <v>1142.8571428571429</v>
       </c>
     </row>
     <row r="24" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="85"/>
+      <c r="D24" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="81"/>
       <c r="F24" s="12">
         <f>-PV(F19,F20,,F18)</f>
         <v>1142.8571428571429</v>
@@ -1912,54 +2671,54 @@
     </row>
     <row r="35" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="17">
+      <c r="B36" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="83"/>
+      <c r="D36" s="16">
         <v>25000</v>
       </c>
-      <c r="K36" s="63" t="s">
+      <c r="K36" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="93"/>
+      <c r="Q36" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="65"/>
-      <c r="Q36" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="65"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="93"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="77"/>
+      <c r="B37" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="85"/>
       <c r="D37" s="5">
         <v>0.04</v>
       </c>
       <c r="U37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="79"/>
+      <c r="B38" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="60"/>
       <c r="D38" s="7">
         <v>5</v>
       </c>
       <c r="L38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" s="1">
         <v>300</v>
       </c>
-      <c r="R38" s="15" t="s">
-        <v>22</v>
+      <c r="R38" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="S38" s="1">
         <v>110</v>
@@ -1967,15 +2726,15 @@
       <c r="U38">
         <v>1</v>
       </c>
-      <c r="V38" s="14">
+      <c r="V38" s="13">
         <f>PV($S$39,U38,,$S$38)</f>
         <v>-103.77358490566037</v>
       </c>
     </row>
     <row r="39" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M39" s="14"/>
+      <c r="M39" s="13"/>
       <c r="R39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S39" s="2">
         <v>0.06</v>
@@ -1983,22 +2742,22 @@
       <c r="U39">
         <v>2</v>
       </c>
-      <c r="V39" s="14">
+      <c r="V39" s="13">
         <f t="shared" ref="V39:V40" si="0">PV($S$39,U39,,$S$38)</f>
         <v>-97.899608401566383</v>
       </c>
     </row>
     <row r="40" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="19">
+      <c r="B40" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="100"/>
+      <c r="D40" s="18">
         <f>-PMT(D37,D38,D36)</f>
         <v>5615.6778373258485</v>
       </c>
       <c r="R40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S40">
         <v>3</v>
@@ -2006,149 +2765,149 @@
       <c r="U40">
         <v>3</v>
       </c>
-      <c r="V40" s="14">
+      <c r="V40" s="13">
         <f t="shared" si="0"/>
         <v>-92.358121133553183</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="S41" s="14">
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="S41" s="13">
         <f>-PV(S39,S40,S38)</f>
         <v>294.03131444078036</v>
       </c>
-      <c r="V41" s="14">
+      <c r="V41" s="13">
         <f>SUM(V38:V40)</f>
         <v>-294.03131444077997</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="26">
+      <c r="F42" s="25">
         <f>D36</f>
         <v>25000</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="25">
+      <c r="B43" s="24">
         <v>1</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <f>F42*$D$37</f>
         <v>1000</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="15">
         <f>$D$40</f>
         <v>5615.6778373258485</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="15">
         <f>D43-C43</f>
         <v>4615.6778373258485</v>
       </c>
-      <c r="F43" s="27">
+      <c r="F43" s="26">
         <f>F42-E43</f>
         <v>20384.322162674151</v>
       </c>
-      <c r="M43" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
+      <c r="M43" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="94"/>
+      <c r="O43" s="94"/>
+      <c r="P43" s="94"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="25">
+      <c r="B44" s="24">
         <v>2</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <f t="shared" ref="C44:C47" si="1">F43*$D$37</f>
         <v>815.3728865069661</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="15">
         <f t="shared" ref="D44:D47" si="2">$D$40</f>
         <v>5615.6778373258485</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="15">
         <f t="shared" ref="E44:E47" si="3">D44-C44</f>
         <v>4800.3049508188824</v>
       </c>
-      <c r="F44" s="27">
+      <c r="F44" s="26">
         <f t="shared" ref="F44:F47" si="4">F43-E44</f>
         <v>15584.017211855269</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="25">
+      <c r="B45" s="24">
         <v>3</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <f t="shared" si="1"/>
         <v>623.36068847421075</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="15">
         <f t="shared" si="2"/>
         <v>5615.6778373258485</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="15">
         <f t="shared" si="3"/>
         <v>4992.3171488516382</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45" s="26">
         <f t="shared" si="4"/>
         <v>10591.700063003631</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="25">
+      <c r="B46" s="24">
         <v>4</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <f t="shared" si="1"/>
         <v>423.66800252014525</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="15">
         <f t="shared" si="2"/>
         <v>5615.6778373258485</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="15">
         <f t="shared" si="3"/>
         <v>5192.0098348057036</v>
       </c>
-      <c r="F46" s="27">
+      <c r="F46" s="26">
         <f t="shared" si="4"/>
         <v>5399.6902281979274</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="28">
+      <c r="B47" s="27">
         <v>5</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="28">
         <f t="shared" si="1"/>
         <v>215.9876091279171</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="29">
         <f t="shared" si="2"/>
         <v>5615.6778373258485</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="29">
         <f t="shared" si="3"/>
         <v>5399.690228197931</v>
       </c>
@@ -2159,213 +2918,213 @@
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="51"/>
-      <c r="E49" s="31">
+      <c r="C49" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="102"/>
+      <c r="E49" s="30">
         <f>SUM(C43:C47)</f>
         <v>3078.3891866292392</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
-      <c r="T51" s="67"/>
-      <c r="U51" s="67"/>
-      <c r="V51" s="67"/>
-      <c r="W51" s="68"/>
+      <c r="A51" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="65"/>
+      <c r="R51" s="65"/>
+      <c r="S51" s="65"/>
+      <c r="T51" s="65"/>
+      <c r="U51" s="65"/>
+      <c r="V51" s="65"/>
+      <c r="W51" s="66"/>
     </row>
     <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="69"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="70"/>
-      <c r="P52" s="70"/>
-      <c r="Q52" s="70"/>
-      <c r="R52" s="70"/>
-      <c r="S52" s="70"/>
-      <c r="T52" s="70"/>
-      <c r="U52" s="70"/>
-      <c r="V52" s="70"/>
-      <c r="W52" s="71"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="68"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="68"/>
+      <c r="Q52" s="68"/>
+      <c r="R52" s="68"/>
+      <c r="S52" s="68"/>
+      <c r="T52" s="68"/>
+      <c r="U52" s="68"/>
+      <c r="V52" s="68"/>
+      <c r="W52" s="69"/>
     </row>
     <row r="71" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="72" t="s">
+      <c r="B72" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="96"/>
+      <c r="D72" s="34">
+        <v>65000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B73" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="98"/>
+      <c r="D73" s="35">
+        <v>0.08</v>
+      </c>
+      <c r="N73" s="21"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q73" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S73" s="21"/>
+      <c r="T73" s="22"/>
+      <c r="U73" s="22"/>
+      <c r="V73" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="W73" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B74" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="73"/>
-      <c r="D72" s="35">
-        <v>65000000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B73" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="56"/>
-      <c r="D73" s="36">
-        <v>0.08</v>
-      </c>
-      <c r="N73" s="22"/>
-      <c r="O73" s="23"/>
-      <c r="P73" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q73" s="24" t="s">
+      <c r="C74" s="98"/>
+      <c r="D74" s="36">
+        <v>2</v>
+      </c>
+      <c r="N74" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="S73" s="22"/>
-      <c r="T73" s="23"/>
-      <c r="U73" s="23"/>
-      <c r="V73" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="W73" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B74" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="56"/>
-      <c r="D74" s="37">
-        <v>2</v>
-      </c>
-      <c r="N74" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="O74" s="87"/>
+      <c r="O74" s="62"/>
       <c r="P74" s="4">
         <v>25</v>
       </c>
       <c r="Q74" s="6">
         <v>25</v>
       </c>
-      <c r="S74" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="T74" s="87"/>
-      <c r="U74" s="87"/>
-      <c r="V74" s="108">
+      <c r="S74" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="T74" s="62"/>
+      <c r="U74" s="62"/>
+      <c r="V74" s="48">
         <v>2E-3</v>
       </c>
-      <c r="W74" s="109">
+      <c r="W74" s="49">
         <v>2E-3</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="58"/>
-      <c r="D75" s="38">
+      <c r="B75" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="104"/>
+      <c r="D75" s="37">
         <v>8</v>
       </c>
-      <c r="N75" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="O75" s="87"/>
+      <c r="N75" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="O75" s="62"/>
       <c r="P75" s="4">
         <v>65</v>
       </c>
       <c r="Q75" s="6">
         <v>60</v>
       </c>
-      <c r="S75" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="T75" s="87"/>
-      <c r="U75" s="87"/>
-      <c r="V75" s="16">
+      <c r="S75" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="T75" s="62"/>
+      <c r="U75" s="62"/>
+      <c r="V75" s="15">
         <f>-FV(V74,P78,P82)</f>
         <v>174677985.10748067</v>
       </c>
-      <c r="W75" s="110">
+      <c r="W75" s="50">
         <f>-FV(W74,Q78,Q82)</f>
         <v>114144635.19729827</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N76" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="O76" s="87"/>
+      <c r="N76" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="O76" s="62"/>
       <c r="P76" s="4">
         <v>85</v>
       </c>
       <c r="Q76" s="6">
         <v>90</v>
       </c>
-      <c r="S76" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="T76" s="79"/>
-      <c r="U76" s="79"/>
-      <c r="V76" s="30">
+      <c r="S76" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="T76" s="60"/>
+      <c r="U76" s="60"/>
+      <c r="V76" s="29">
         <f>PMT(V74,P80,-V75)</f>
         <v>917137.57956119278</v>
       </c>
-      <c r="W76" s="111">
+      <c r="W76" s="51">
         <f>PMT(W74,Q80,-W75)</f>
         <v>445097.15018392843</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="61"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="62"/>
-      <c r="H77" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="61"/>
-      <c r="L77" s="62"/>
-      <c r="N77" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="O77" s="87"/>
+      <c r="A77" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="89"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="90"/>
+      <c r="H77" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I77" s="89"/>
+      <c r="J77" s="89"/>
+      <c r="K77" s="89"/>
+      <c r="L77" s="90"/>
+      <c r="N77" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="O77" s="62"/>
       <c r="P77" s="4">
         <f>P75-P74</f>
         <v>40</v>
@@ -2374,16 +3133,16 @@
         <f>Q75-Q74</f>
         <v>35</v>
       </c>
-      <c r="S77" s="49"/>
-      <c r="T77" s="49"/>
-      <c r="U77" s="49"/>
-      <c r="V77" s="14"/>
+      <c r="S77" s="63"/>
+      <c r="T77" s="63"/>
+      <c r="U77" s="63"/>
+      <c r="V77" s="13"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N78" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="O78" s="87"/>
+      <c r="N78" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="O78" s="62"/>
       <c r="P78" s="4">
         <f>P77*12</f>
         <v>480</v>
@@ -2392,37 +3151,37 @@
         <f>Q77*12</f>
         <v>420</v>
       </c>
-      <c r="S78" s="22"/>
-      <c r="T78" s="112"/>
-      <c r="U78" s="23"/>
-      <c r="V78" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="W78" s="24" t="s">
-        <v>46</v>
+      <c r="S78" s="21"/>
+      <c r="T78" s="52"/>
+      <c r="U78" s="22"/>
+      <c r="V78" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="W78" s="23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B79" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="59"/>
-      <c r="D79" s="13">
-        <f>EFFECT(D73,D74)</f>
+      <c r="B79" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="105"/>
+      <c r="D79">
+        <f>POWER(1+(D73/D74),2) -1</f>
         <v>8.1600000000000117E-2</v>
       </c>
-      <c r="H79" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="I79" s="49"/>
+      <c r="H79" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" s="63"/>
       <c r="J79" s="1">
         <f>F85</f>
         <v>45245009.51578369</v>
       </c>
-      <c r="N79" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="O79" s="87"/>
+      <c r="N79" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="O79" s="62"/>
       <c r="P79" s="4">
         <f>P76-P75</f>
         <v>20</v>
@@ -2431,38 +3190,38 @@
         <f>Q76-Q75</f>
         <v>30</v>
       </c>
-      <c r="S79" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="T79" s="113"/>
-      <c r="U79" s="107"/>
+      <c r="S79" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="T79" s="54"/>
+      <c r="U79" s="55"/>
       <c r="V79" s="3">
         <v>300000</v>
       </c>
-      <c r="W79" s="39">
+      <c r="W79" s="38">
         <v>500000</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="49"/>
-      <c r="D80" s="14">
+      <c r="B80" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="63"/>
+      <c r="D80" s="13">
         <f>-PMT(D79,D75,D72)</f>
         <v>11379731.896831045</v>
       </c>
-      <c r="H80" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" s="49"/>
+      <c r="H80" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" s="63"/>
       <c r="J80" s="2">
         <v>0.05</v>
       </c>
-      <c r="N80" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="O80" s="87"/>
+      <c r="N80" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="O80" s="62"/>
       <c r="P80" s="4">
         <f>12*P79</f>
         <v>240</v>
@@ -2471,120 +3230,120 @@
         <f>12*Q79</f>
         <v>360</v>
       </c>
-      <c r="S80" s="106" t="s">
-        <v>65</v>
-      </c>
-      <c r="T80" s="113"/>
-      <c r="U80" s="107"/>
-      <c r="V80" s="16">
+      <c r="S80" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="T80" s="54"/>
+      <c r="U80" s="55"/>
+      <c r="V80" s="15">
         <f>V76+V79</f>
         <v>1217137.5795611928</v>
       </c>
-      <c r="W80" s="110">
+      <c r="W80" s="50">
         <f>W76+W79</f>
         <v>945097.15018392843</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B81" s="22"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H81" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="I81" s="49"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="63"/>
       <c r="J81">
         <v>3</v>
       </c>
-      <c r="N81" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="O81" s="87"/>
+      <c r="N81" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="O81" s="62"/>
       <c r="P81" s="3">
         <v>1670000</v>
       </c>
-      <c r="Q81" s="39">
+      <c r="Q81" s="38">
         <f>P81*0.8</f>
         <v>1336000</v>
       </c>
-      <c r="S81" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="T81" s="113"/>
-      <c r="U81" s="107"/>
-      <c r="V81" s="16">
+      <c r="S81" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="T81" s="54"/>
+      <c r="U81" s="55"/>
+      <c r="V81" s="15">
         <f>-PV(V74,P80,V80)</f>
         <v>231815972.5807614</v>
       </c>
-      <c r="W81" s="110">
+      <c r="W81" s="50">
         <f>-PV(W74,Q80,W80)</f>
         <v>242369040.98166293</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D82" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F82" s="39">
+        <v>13</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="38">
         <f>D72</f>
         <v>65000000</v>
       </c>
-      <c r="H82" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" s="49"/>
-      <c r="J82" s="14">
+      <c r="H82" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="63"/>
+      <c r="J82" s="13">
         <f>-PMT(J80,J81,J79)</f>
         <v>16614355.001017952</v>
       </c>
-      <c r="N82" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="O82" s="87"/>
+      <c r="N82" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="O82" s="62"/>
       <c r="P82" s="3">
         <f>0.13*P81</f>
         <v>217100</v>
       </c>
-      <c r="Q82" s="39">
+      <c r="Q82" s="38">
         <f>0.13*Q81</f>
         <v>173680</v>
       </c>
-      <c r="S82" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="T82" s="113"/>
-      <c r="U82" s="107"/>
-      <c r="V82" s="16">
+      <c r="S82" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="T82" s="54"/>
+      <c r="U82" s="55"/>
+      <c r="V82" s="15">
         <f>-PMT(V74,P78,,V81)</f>
         <v>288114.42733505159</v>
       </c>
-      <c r="W82" s="110">
+      <c r="W82" s="50">
         <f>-PMT(W74,Q78,,W81)</f>
         <v>368783.47339701263</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="25">
+      <c r="B83" s="24">
         <v>1</v>
       </c>
-      <c r="C83" s="16">
+      <c r="C83" s="15">
         <f>F82*$D$79</f>
         <v>5304000.0000000075</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D83" s="15">
         <f>$D$80</f>
         <v>11379731.896831045</v>
       </c>
@@ -2592,120 +3351,120 @@
         <f>D83-C83</f>
         <v>6075731.8968310375</v>
       </c>
-      <c r="F83" s="39">
+      <c r="F83" s="38">
         <f>F82-E83</f>
         <v>58924268.103168964</v>
       </c>
-      <c r="H83" s="22"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N83" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="O83" s="87"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="O83" s="62"/>
       <c r="P83" s="3">
         <f>0.07*P81</f>
         <v>116900.00000000001</v>
       </c>
-      <c r="Q83" s="39">
+      <c r="Q83" s="38">
         <f>0.07*Q81</f>
         <v>93520.000000000015</v>
       </c>
-      <c r="S83" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="T83" s="114"/>
-      <c r="U83" s="105"/>
-      <c r="V83" s="30">
+      <c r="S83" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="T83" s="57"/>
+      <c r="U83" s="58"/>
+      <c r="V83" s="29">
         <f>V82-P82</f>
         <v>71014.427335051587</v>
       </c>
-      <c r="W83" s="111">
+      <c r="W83" s="51">
         <f>W82-Q82</f>
         <v>195103.47339701263</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B84" s="25">
+      <c r="B84" s="24">
         <v>2</v>
       </c>
-      <c r="C84" s="16">
-        <f t="shared" ref="C84:C90" si="5">F83*$D$79</f>
+      <c r="C84" s="15">
+        <f>F83*$D$79</f>
         <v>4808220.2772185942</v>
       </c>
-      <c r="D84" s="16">
-        <f t="shared" ref="D84:D90" si="6">$D$80</f>
+      <c r="D84" s="15">
+        <f t="shared" ref="D84:D90" si="5">$D$80</f>
         <v>11379731.896831045</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" ref="E84:E90" si="7">D84-C84</f>
+        <f t="shared" ref="E84:E90" si="6">D84-C84</f>
         <v>6571511.6196124507</v>
       </c>
-      <c r="F84" s="39">
-        <f t="shared" ref="F84:F90" si="8">F83-E84</f>
+      <c r="F84" s="38">
+        <f t="shared" ref="F84:F90" si="7">F83-E84</f>
         <v>52352756.483556516</v>
       </c>
-      <c r="H84" s="25" t="s">
+      <c r="H84" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I84" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="J84" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L84" s="39">
+        <v>29</v>
+      </c>
+      <c r="L84" s="38">
         <f>J79</f>
         <v>45245009.51578369</v>
       </c>
-      <c r="N84" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="O84" s="87"/>
+      <c r="N84" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="O84" s="62"/>
       <c r="P84" s="3">
         <f>P81-P82-P83</f>
         <v>1336000</v>
       </c>
-      <c r="Q84" s="39">
+      <c r="Q84" s="38">
         <f>Q81-Q82-Q83</f>
         <v>1068800</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B85" s="42">
+      <c r="B85" s="41">
         <v>3</v>
       </c>
-      <c r="C85" s="43">
+      <c r="C85" s="42">
+        <f>F84*$D$79</f>
+        <v>4271984.9290582174</v>
+      </c>
+      <c r="D85" s="42">
         <f t="shared" si="5"/>
-        <v>4271984.9290582174</v>
-      </c>
-      <c r="D85" s="43">
+        <v>11379731.896831045</v>
+      </c>
+      <c r="E85" s="43">
         <f t="shared" si="6"/>
-        <v>11379731.896831045</v>
-      </c>
-      <c r="E85" s="44">
+        <v>7107746.9677728275</v>
+      </c>
+      <c r="F85" s="44">
         <f t="shared" si="7"/>
-        <v>7107746.9677728275</v>
-      </c>
-      <c r="F85" s="45">
-        <f t="shared" si="8"/>
         <v>45245009.51578369</v>
       </c>
-      <c r="H85" s="25">
+      <c r="H85" s="24">
         <v>1</v>
       </c>
       <c r="I85" s="3">
         <f>L84*$J$80</f>
         <v>2262250.4757891847</v>
       </c>
-      <c r="J85" s="16">
+      <c r="J85" s="15">
         <f>$J$82</f>
         <v>16614355.001017952</v>
       </c>
@@ -2713,390 +3472,1461 @@
         <f>J85-I85</f>
         <v>14352104.525228769</v>
       </c>
-      <c r="L85" s="39">
+      <c r="L85" s="38">
         <f>L84-K85</f>
         <v>30892904.990554921</v>
       </c>
-      <c r="N85" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="O85" s="87"/>
+      <c r="N85" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="O85" s="62"/>
       <c r="P85" s="3">
         <f>0.1*P84</f>
         <v>133600</v>
       </c>
-      <c r="Q85" s="39">
+      <c r="Q85" s="38">
         <f>0.1*Q84</f>
         <v>106880</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="25">
+      <c r="B86" s="24">
         <v>4</v>
       </c>
-      <c r="C86" s="16">
+      <c r="C86" s="15">
+        <f>F85*$D$79</f>
+        <v>3691992.7764879544</v>
+      </c>
+      <c r="D86" s="15">
         <f t="shared" si="5"/>
-        <v>3691992.7764879544</v>
-      </c>
-      <c r="D86" s="16">
+        <v>11379731.896831045</v>
+      </c>
+      <c r="E86" s="4">
         <f t="shared" si="6"/>
-        <v>11379731.896831045</v>
-      </c>
-      <c r="E86" s="4">
+        <v>7687739.120343091</v>
+      </c>
+      <c r="F86" s="38">
         <f t="shared" si="7"/>
-        <v>7687739.120343091</v>
-      </c>
-      <c r="F86" s="39">
-        <f t="shared" si="8"/>
         <v>37557270.395440601</v>
       </c>
-      <c r="H86" s="25">
+      <c r="H86" s="24">
         <v>2</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" ref="I86:I87" si="9">L85*$J$80</f>
+        <f t="shared" ref="I86:I87" si="8">L85*$J$80</f>
         <v>1544645.2495277461</v>
       </c>
-      <c r="J86" s="16">
-        <f t="shared" ref="J86:J87" si="10">$J$82</f>
+      <c r="J86" s="15">
+        <f t="shared" ref="J86:J87" si="9">$J$82</f>
         <v>16614355.001017952</v>
       </c>
       <c r="K86" s="4">
-        <f t="shared" ref="K86:K87" si="11">J86-I86</f>
+        <f t="shared" ref="K86:K87" si="10">J86-I86</f>
         <v>15069709.751490206</v>
       </c>
-      <c r="L86" s="39">
-        <f t="shared" ref="L86:L87" si="12">L85-K86</f>
+      <c r="L86" s="38">
+        <f t="shared" ref="L86:L87" si="11">L85-K86</f>
         <v>15823195.239064716</v>
       </c>
-      <c r="N86" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="O86" s="79"/>
-      <c r="P86" s="46">
+      <c r="N86" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="O86" s="60"/>
+      <c r="P86" s="45">
         <f>P84-P85</f>
         <v>1202400</v>
       </c>
-      <c r="Q86" s="41">
+      <c r="Q86" s="40">
         <f>Q84-Q85</f>
         <v>961920</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="25">
+      <c r="B87" s="24">
         <v>5</v>
       </c>
-      <c r="C87" s="16">
+      <c r="C87" s="15">
+        <f>F86*$D$79</f>
+        <v>3064673.2642679573</v>
+      </c>
+      <c r="D87" s="15">
         <f t="shared" si="5"/>
-        <v>3064673.2642679573</v>
-      </c>
-      <c r="D87" s="16">
+        <v>11379731.896831045</v>
+      </c>
+      <c r="E87" s="4">
         <f t="shared" si="6"/>
+        <v>8315058.6325630881</v>
+      </c>
+      <c r="F87" s="38">
+        <f t="shared" si="7"/>
+        <v>29242211.762877513</v>
+      </c>
+      <c r="H87" s="27">
+        <v>3</v>
+      </c>
+      <c r="I87" s="45">
+        <f t="shared" si="8"/>
+        <v>791159.76195323584</v>
+      </c>
+      <c r="J87" s="29">
+        <f t="shared" si="9"/>
+        <v>16614355.001017952</v>
+      </c>
+      <c r="K87" s="39">
+        <f t="shared" si="10"/>
+        <v>15823195.239064716</v>
+      </c>
+      <c r="L87" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B88" s="24">
+        <v>6</v>
+      </c>
+      <c r="C88" s="15">
+        <f>F87*$D$79</f>
+        <v>2386164.4798508086</v>
+      </c>
+      <c r="D88" s="15">
+        <f t="shared" si="5"/>
         <v>11379731.896831045</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E88" s="4">
+        <f t="shared" si="6"/>
+        <v>8993567.4169802368</v>
+      </c>
+      <c r="F88" s="38">
         <f t="shared" si="7"/>
-        <v>8315058.6325630881</v>
-      </c>
-      <c r="F87" s="39">
-        <f t="shared" si="8"/>
-        <v>29242211.762877513</v>
-      </c>
-      <c r="H87" s="28">
-        <v>3</v>
-      </c>
-      <c r="I87" s="46">
-        <f t="shared" si="9"/>
-        <v>791159.76195323584</v>
-      </c>
-      <c r="J87" s="30">
-        <f t="shared" si="10"/>
-        <v>16614355.001017952</v>
-      </c>
-      <c r="K87" s="40">
-        <f t="shared" si="11"/>
-        <v>15823195.239064716</v>
-      </c>
-      <c r="L87" s="41">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B88" s="25">
-        <v>6</v>
-      </c>
-      <c r="C88" s="16">
+        <v>20248644.345897276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B89" s="24">
+        <v>7</v>
+      </c>
+      <c r="C89" s="15">
+        <f>F88*$D$79</f>
+        <v>1652289.3786252202</v>
+      </c>
+      <c r="D89" s="15">
         <f t="shared" si="5"/>
-        <v>2386164.4798508086</v>
-      </c>
-      <c r="D88" s="16">
+        <v>11379731.896831045</v>
+      </c>
+      <c r="E89" s="4">
         <f t="shared" si="6"/>
+        <v>9727442.5182058252</v>
+      </c>
+      <c r="F89" s="38">
+        <f t="shared" si="7"/>
+        <v>10521201.827691451</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="27">
+        <v>8</v>
+      </c>
+      <c r="C90" s="29">
+        <f>F89*$D$79</f>
+        <v>858530.06913962367</v>
+      </c>
+      <c r="D90" s="29">
+        <f t="shared" si="5"/>
         <v>11379731.896831045</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E90" s="39">
+        <f t="shared" si="6"/>
+        <v>10521201.827691421</v>
+      </c>
+      <c r="F90" s="40">
         <f t="shared" si="7"/>
-        <v>8993567.4169802368</v>
-      </c>
-      <c r="F88" s="39">
-        <f t="shared" si="8"/>
-        <v>20248644.345897276</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B89" s="25">
-        <v>7</v>
-      </c>
-      <c r="C89" s="16">
-        <f t="shared" si="5"/>
-        <v>1652289.3786252202</v>
-      </c>
-      <c r="D89" s="16">
-        <f t="shared" si="6"/>
-        <v>11379731.896831045</v>
-      </c>
-      <c r="E89" s="4">
-        <f t="shared" si="7"/>
-        <v>9727442.5182058252</v>
-      </c>
-      <c r="F89" s="39">
-        <f t="shared" si="8"/>
-        <v>10521201.827691451</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="28">
-        <v>8</v>
-      </c>
-      <c r="C90" s="30">
-        <f t="shared" si="5"/>
-        <v>858530.06913962367</v>
-      </c>
-      <c r="D90" s="30">
-        <f t="shared" si="6"/>
-        <v>11379731.896831045</v>
-      </c>
-      <c r="E90" s="40">
-        <f t="shared" si="7"/>
-        <v>10521201.827691421</v>
-      </c>
-      <c r="F90" s="41">
-        <f t="shared" si="8"/>
         <v>2.9802322387695313E-8</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
-        <v>36</v>
+      <c r="A92" s="33" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B93" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C93" s="49"/>
+      <c r="B93" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="63"/>
       <c r="D93" s="2">
         <v>0.03</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="63"/>
+      <c r="E94" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F94" s="49"/>
+      <c r="F94" s="63"/>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95" s="52">
+      <c r="C95" s="106">
         <f>$D$80</f>
         <v>11379731.896831045</v>
       </c>
-      <c r="D95" s="49"/>
-      <c r="E95" s="52">
+      <c r="D95" s="63"/>
+      <c r="E95" s="106">
         <f>-PV($D$93,B95,,C95)</f>
         <v>11048283.394981597</v>
       </c>
-      <c r="F95" s="49"/>
-      <c r="G95" s="14"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="13"/>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>2</v>
       </c>
-      <c r="C96" s="52">
-        <f t="shared" ref="C96:C97" si="13">$D$80</f>
+      <c r="C96" s="106">
+        <f t="shared" ref="C96:C97" si="12">$D$80</f>
         <v>11379731.896831045</v>
       </c>
-      <c r="D96" s="49"/>
-      <c r="E96" s="52">
-        <f t="shared" ref="E96:E100" si="14">-PV($D$93,B96,,C96)</f>
+      <c r="D96" s="63"/>
+      <c r="E96" s="106">
+        <f t="shared" ref="E96:E100" si="13">-PV($D$93,B96,,C96)</f>
         <v>10726488.732991843</v>
       </c>
-      <c r="F96" s="49"/>
-      <c r="G96" s="14"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F96" s="63"/>
+      <c r="G96" s="13"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>3</v>
       </c>
-      <c r="C97" s="52">
+      <c r="C97" s="106">
+        <f t="shared" si="12"/>
+        <v>11379731.896831045</v>
+      </c>
+      <c r="D97" s="63"/>
+      <c r="E97" s="106">
         <f t="shared" si="13"/>
-        <v>11379731.896831045</v>
-      </c>
-      <c r="D97" s="49"/>
-      <c r="E97" s="52">
-        <f t="shared" si="14"/>
         <v>10414066.731060041</v>
       </c>
-      <c r="F97" s="49"/>
-      <c r="G97" s="14"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F97" s="63"/>
+      <c r="G97" s="13"/>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>4</v>
       </c>
-      <c r="C98" s="52">
+      <c r="C98" s="106">
         <f>$J$82</f>
         <v>16614355.001017952</v>
       </c>
-      <c r="D98" s="49"/>
-      <c r="E98" s="52">
-        <f t="shared" si="14"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="106">
+        <f t="shared" si="13"/>
         <v>14761639.227877704</v>
       </c>
-      <c r="F98" s="49"/>
-      <c r="G98" s="14"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F98" s="63"/>
+      <c r="G98" s="13"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>5</v>
       </c>
-      <c r="C99" s="52">
-        <f t="shared" ref="C99:C100" si="15">$J$82</f>
+      <c r="C99" s="106">
+        <f t="shared" ref="C99:C100" si="14">$J$82</f>
         <v>16614355.001017952</v>
       </c>
-      <c r="D99" s="49"/>
-      <c r="E99" s="52">
-        <f t="shared" si="14"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="106">
+        <f t="shared" si="13"/>
         <v>14331688.570755053</v>
       </c>
-      <c r="F99" s="49"/>
-      <c r="G99" s="14"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F99" s="63"/>
+      <c r="G99" s="13"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>6</v>
       </c>
-      <c r="C100" s="52">
-        <f t="shared" si="15"/>
+      <c r="C100" s="106">
+        <f t="shared" si="14"/>
         <v>16614355.001017952</v>
       </c>
-      <c r="D100" s="49"/>
-      <c r="E100" s="52">
-        <f t="shared" si="14"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="106">
+        <f t="shared" si="13"/>
         <v>13914260.748305876</v>
       </c>
-      <c r="F100" s="49"/>
-      <c r="G100" s="14"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="53">
+      <c r="F100" s="63"/>
+      <c r="G100" s="13"/>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B101" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="94"/>
+      <c r="D101" s="94"/>
+      <c r="E101" s="107">
         <f>SUM(E95:F100)</f>
         <v>75196427.405972108</v>
       </c>
-      <c r="F101" s="54"/>
-      <c r="G101" s="14"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="34" t="s">
+      <c r="F101" s="94"/>
+      <c r="G101" s="13"/>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A103" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C104" s="63" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D104" s="49"/>
+      <c r="D104" s="63"/>
       <c r="E104" s="1">
         <f>F85</f>
         <v>45245009.51578369</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D105" s="49"/>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C105" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" s="63"/>
       <c r="E105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D106" s="49"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="63"/>
       <c r="E106" s="2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D107" s="51"/>
-      <c r="E107" s="48">
+      <c r="G106" s="13">
+        <f>E107-E104</f>
+        <v>1370969.033337757</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="102"/>
+      <c r="E107" s="47">
         <f>-FV(E106,E105,,E104)</f>
         <v>46615978.549121447</v>
       </c>
     </row>
+    <row r="108" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A109" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B109" s="65"/>
+      <c r="C109" s="65"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="65"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="65"/>
+      <c r="J109" s="65"/>
+      <c r="K109" s="65"/>
+      <c r="L109" s="65"/>
+      <c r="M109" s="65"/>
+      <c r="N109" s="65"/>
+      <c r="O109" s="65"/>
+      <c r="P109" s="65"/>
+      <c r="Q109" s="65"/>
+      <c r="R109" s="65"/>
+      <c r="S109" s="65"/>
+      <c r="T109" s="65"/>
+      <c r="U109" s="65"/>
+      <c r="V109" s="65"/>
+      <c r="W109" s="66"/>
+    </row>
+    <row r="110" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="67"/>
+      <c r="B110" s="68"/>
+      <c r="C110" s="68"/>
+      <c r="D110" s="68"/>
+      <c r="E110" s="68"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="68"/>
+      <c r="H110" s="68"/>
+      <c r="I110" s="68"/>
+      <c r="J110" s="68"/>
+      <c r="K110" s="68"/>
+      <c r="L110" s="68"/>
+      <c r="M110" s="68"/>
+      <c r="N110" s="68"/>
+      <c r="O110" s="68"/>
+      <c r="P110" s="68"/>
+      <c r="Q110" s="68"/>
+      <c r="R110" s="68"/>
+      <c r="S110" s="68"/>
+      <c r="T110" s="68"/>
+      <c r="U110" s="68"/>
+      <c r="V110" s="68"/>
+      <c r="W110" s="69"/>
+    </row>
+    <row r="129" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A130" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" s="83"/>
+      <c r="D130" s="191">
+        <v>35000000</v>
+      </c>
+      <c r="K130" s="120" t="s">
+        <v>120</v>
+      </c>
+      <c r="L130" s="120"/>
+      <c r="M130" s="201">
+        <v>1760000</v>
+      </c>
+      <c r="O130" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="P130" s="62"/>
+      <c r="Q130" s="62"/>
+      <c r="S130" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="T130" s="62"/>
+      <c r="U130" s="62"/>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B131" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C131" s="62"/>
+      <c r="D131" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="K131" s="120"/>
+      <c r="L131" s="120"/>
+      <c r="M131" s="201"/>
+      <c r="O131" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
+      <c r="S131" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B132" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C132" s="62"/>
+      <c r="D132" s="6">
+        <v>4</v>
+      </c>
+      <c r="K132" s="120" t="s">
+        <v>121</v>
+      </c>
+      <c r="L132" s="120"/>
+      <c r="M132" s="201">
+        <f>1.2*M130</f>
+        <v>2112000</v>
+      </c>
+      <c r="O132" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="3">
+        <f>M130</f>
+        <v>1760000</v>
+      </c>
+      <c r="S132" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="T132" s="4"/>
+      <c r="U132" s="3">
+        <f>M132</f>
+        <v>2112000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B133" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C133" s="62"/>
+      <c r="D133" s="6">
+        <v>5</v>
+      </c>
+      <c r="K133" s="120"/>
+      <c r="L133" s="120"/>
+      <c r="M133" s="119"/>
+      <c r="O133" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="3">
+        <f>0.13*Q132</f>
+        <v>228800</v>
+      </c>
+      <c r="S133" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T133" s="4"/>
+      <c r="U133" s="3">
+        <f>0.13*U132</f>
+        <v>274560</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B134" s="192" t="s">
+        <v>106</v>
+      </c>
+      <c r="C134" s="190"/>
+      <c r="D134" s="6">
+        <f>POWER(1+(D131/D132),2) -1</f>
+        <v>6.0899999999999954E-2</v>
+      </c>
+      <c r="O134" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="3">
+        <f>0.07*Q132</f>
+        <v>123200.00000000001</v>
+      </c>
+      <c r="S134" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T134" s="4"/>
+      <c r="U134" s="3">
+        <f>0.07*U132</f>
+        <v>147840</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="60"/>
+      <c r="D135" s="51">
+        <f>-PMT(D134,D133,D130)</f>
+        <v>8329227.4942965871</v>
+      </c>
+      <c r="O135" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="3">
+        <f>Q132-Q133-Q134</f>
+        <v>1408000</v>
+      </c>
+      <c r="S135" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T135" s="4"/>
+      <c r="U135" s="3">
+        <f>U132-U133-U134</f>
+        <v>1689600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O136" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="3">
+        <f>0.12*Q135</f>
+        <v>168960</v>
+      </c>
+      <c r="S136" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="T136" s="4"/>
+      <c r="U136" s="3">
+        <f>0.12*U135</f>
+        <v>202752</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B137" s="185" t="s">
+        <v>107</v>
+      </c>
+      <c r="C137" s="186"/>
+      <c r="D137" s="186"/>
+      <c r="E137" s="186"/>
+      <c r="F137" s="187" t="s">
+        <v>17</v>
+      </c>
+      <c r="O137" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="3">
+        <f>Q135-Q136</f>
+        <v>1239040</v>
+      </c>
+      <c r="S137" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="T137" s="4"/>
+      <c r="U137" s="3">
+        <f>U135-U136</f>
+        <v>1486848</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B138" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="189" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="189" t="s">
+        <v>29</v>
+      </c>
+      <c r="F138" s="38">
+        <f>D130</f>
+        <v>35000000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="24">
+        <v>1</v>
+      </c>
+      <c r="C139" s="3">
+        <f>F138*$D$134</f>
+        <v>2131499.9999999986</v>
+      </c>
+      <c r="D139" s="15">
+        <f>$D$135</f>
+        <v>8329227.4942965871</v>
+      </c>
+      <c r="E139" s="4">
+        <f>D139-C139</f>
+        <v>6197727.494296588</v>
+      </c>
+      <c r="F139" s="38">
+        <f>F138-E139</f>
+        <v>28802272.505703412</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B140" s="41">
+        <v>2</v>
+      </c>
+      <c r="C140" s="193">
+        <f t="shared" ref="C140:C143" si="15">F139*$D$134</f>
+        <v>1754058.3955973366</v>
+      </c>
+      <c r="D140" s="42">
+        <f t="shared" ref="D140:D143" si="16">$D$135</f>
+        <v>8329227.4942965871</v>
+      </c>
+      <c r="E140" s="43">
+        <f t="shared" ref="E140:E143" si="17">D140-C140</f>
+        <v>6575169.0986992503</v>
+      </c>
+      <c r="F140" s="44">
+        <f t="shared" ref="F140:F143" si="18">F139-E140</f>
+        <v>22227103.407004163</v>
+      </c>
+      <c r="K140" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="L140" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="M140" s="83"/>
+      <c r="N140" s="83"/>
+      <c r="O140" s="114"/>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B141" s="24">
+        <v>3</v>
+      </c>
+      <c r="C141" s="3">
+        <f t="shared" si="15"/>
+        <v>1353630.5974865525</v>
+      </c>
+      <c r="D141" s="15">
+        <f t="shared" si="16"/>
+        <v>8329227.4942965871</v>
+      </c>
+      <c r="E141" s="4">
+        <f t="shared" si="17"/>
+        <v>6975596.8968100343</v>
+      </c>
+      <c r="F141" s="38">
+        <f t="shared" si="18"/>
+        <v>15251506.510194128</v>
+      </c>
+      <c r="L141" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="M141" s="54"/>
+      <c r="N141" s="55"/>
+      <c r="O141" s="49">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B142" s="24">
+        <v>4</v>
+      </c>
+      <c r="C142" s="3">
+        <f t="shared" si="15"/>
+        <v>928816.74647082167</v>
+      </c>
+      <c r="D142" s="15">
+        <f t="shared" si="16"/>
+        <v>8329227.4942965871</v>
+      </c>
+      <c r="E142" s="4">
+        <f t="shared" si="17"/>
+        <v>7400410.7478257651</v>
+      </c>
+      <c r="F142" s="38">
+        <f t="shared" si="18"/>
+        <v>7851095.7623683633</v>
+      </c>
+      <c r="L142" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="M142" s="54"/>
+      <c r="N142" s="55"/>
+      <c r="O142" s="6">
+        <f>POWER(1+(O141/12),1) -1</f>
+        <v>1.3333333333334085E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="27">
+        <v>5</v>
+      </c>
+      <c r="C143" s="45">
+        <f t="shared" si="15"/>
+        <v>478131.73192823294</v>
+      </c>
+      <c r="D143" s="29">
+        <f t="shared" si="16"/>
+        <v>8329227.4942965871</v>
+      </c>
+      <c r="E143" s="39">
+        <f t="shared" si="17"/>
+        <v>7851095.762368354</v>
+      </c>
+      <c r="F143" s="40">
+        <f t="shared" si="18"/>
+        <v>9.3132257461547852E-9</v>
+      </c>
+      <c r="L143" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="M143" s="54"/>
+      <c r="N143" s="55"/>
+      <c r="O143" s="6">
+        <f>12*(85-65)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L144" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="M144" s="54"/>
+      <c r="N144" s="55"/>
+      <c r="O144" s="206">
+        <f>-FV(O142,Q131,Q133)-FV(O142,U131,U133)</f>
+        <v>142262473.32439083</v>
+      </c>
+    </row>
+    <row r="145" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="185" t="s">
+        <v>108</v>
+      </c>
+      <c r="C145" s="186"/>
+      <c r="D145" s="186"/>
+      <c r="E145" s="186"/>
+      <c r="F145" s="187" t="s">
+        <v>17</v>
+      </c>
+      <c r="L145" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="M145" s="57"/>
+      <c r="N145" s="58"/>
+      <c r="O145" s="51">
+        <f>PMT(O142,O143,-O144)</f>
+        <v>693043.29776588443</v>
+      </c>
+    </row>
+    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B146" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="189" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="189" t="s">
+        <v>29</v>
+      </c>
+      <c r="F146" s="38">
+        <f>F140</f>
+        <v>22227103.407004163</v>
+      </c>
+      <c r="G146" s="167" t="s">
+        <v>109</v>
+      </c>
+      <c r="H146" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O146" s="13"/>
+    </row>
+    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B147" s="24">
+        <v>1</v>
+      </c>
+      <c r="C147" s="3">
+        <f>F146*$H$146</f>
+        <v>133362.62044202499</v>
+      </c>
+      <c r="D147" s="15">
+        <f>-PMT($H$146,$H$147,$F$146)</f>
+        <v>7498120.1670730654</v>
+      </c>
+      <c r="E147" s="4">
+        <f>D147-C147</f>
+        <v>7364757.5466310401</v>
+      </c>
+      <c r="F147" s="38">
+        <f>F146-E147</f>
+        <v>14862345.860373123</v>
+      </c>
+      <c r="G147" t="s">
+        <v>110</v>
+      </c>
+      <c r="H147">
+        <v>3</v>
+      </c>
+      <c r="K147" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B148" s="194">
+        <v>2</v>
+      </c>
+      <c r="C148" s="3">
+        <f t="shared" ref="C148:C149" si="19">F147*$H$146</f>
+        <v>89174.075162238732</v>
+      </c>
+      <c r="D148" s="15">
+        <f t="shared" ref="D148:D149" si="20">-PMT($H$146,$H$147,$F$146)</f>
+        <v>7498120.1670730654</v>
+      </c>
+      <c r="E148" s="195">
+        <f t="shared" ref="E148:E151" si="21">D148-C148</f>
+        <v>7408946.091910827</v>
+      </c>
+      <c r="F148" s="196">
+        <f t="shared" ref="F148:F151" si="22">F147-E148</f>
+        <v>7453399.7684622956</v>
+      </c>
+      <c r="L148" t="s">
+        <v>132</v>
+      </c>
+      <c r="N148" s="198">
+        <f>1.25*U137</f>
+        <v>1858560</v>
+      </c>
+      <c r="O148" s="197"/>
+      <c r="P148" s="197"/>
+      <c r="Q148" s="197"/>
+      <c r="R148" s="197"/>
+      <c r="S148" s="197"/>
+      <c r="T148" s="197"/>
+      <c r="U148" s="197"/>
+      <c r="V148" s="197"/>
+      <c r="W148" s="197"/>
+    </row>
+    <row r="149" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="27">
+        <v>3</v>
+      </c>
+      <c r="C149" s="45">
+        <f t="shared" si="19"/>
+        <v>44720.398610773773</v>
+      </c>
+      <c r="D149" s="29">
+        <f t="shared" si="20"/>
+        <v>7498120.1670730654</v>
+      </c>
+      <c r="E149" s="39">
+        <f t="shared" si="21"/>
+        <v>7453399.7684622919</v>
+      </c>
+      <c r="F149" s="40">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L149" t="s">
+        <v>134</v>
+      </c>
+      <c r="N149" s="13">
+        <f>-PV(O142,O143,N148)</f>
+        <v>381510568.34995139</v>
+      </c>
+      <c r="O149" s="207"/>
+      <c r="P149" s="205"/>
+      <c r="Q149" s="205"/>
+      <c r="R149" s="205"/>
+      <c r="S149" s="205"/>
+      <c r="T149" s="205"/>
+      <c r="U149" s="205"/>
+      <c r="V149" s="205"/>
+      <c r="W149" s="204"/>
+    </row>
+    <row r="150" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="197"/>
+      <c r="C150" s="198"/>
+      <c r="D150" s="199"/>
+      <c r="E150" s="197"/>
+      <c r="F150" s="198"/>
+      <c r="L150" t="s">
+        <v>133</v>
+      </c>
+      <c r="N150" s="207">
+        <f>-FV(O142,O143,U133)</f>
+        <v>77597712.722394988</v>
+      </c>
+      <c r="O150" s="205"/>
+      <c r="P150" s="205"/>
+      <c r="Q150" s="205"/>
+      <c r="R150" s="205"/>
+      <c r="S150" s="205"/>
+      <c r="T150" s="205"/>
+      <c r="U150" s="205"/>
+      <c r="V150" s="205"/>
+      <c r="W150" s="199"/>
+    </row>
+    <row r="151" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B151" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C151" s="114"/>
+      <c r="D151" s="199"/>
+      <c r="E151" s="197"/>
+      <c r="F151" s="198"/>
+      <c r="L151" t="s">
+        <v>135</v>
+      </c>
+      <c r="N151" s="207">
+        <f>N149-N150</f>
+        <v>303912855.62755638</v>
+      </c>
+      <c r="O151" s="205"/>
+      <c r="P151" s="205"/>
+      <c r="Q151" s="205"/>
+      <c r="R151" s="205"/>
+      <c r="S151" s="205"/>
+      <c r="T151" s="205"/>
+      <c r="U151" s="205"/>
+      <c r="V151" s="205"/>
+      <c r="W151" s="199"/>
+    </row>
+    <row r="152" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B152" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C152" s="6">
+        <v>7</v>
+      </c>
+      <c r="L152" t="s">
+        <v>136</v>
+      </c>
+      <c r="N152" s="207">
+        <f>-PMT(O142,Q131,N151)</f>
+        <v>1480536.3830368416</v>
+      </c>
+      <c r="O152" s="205"/>
+      <c r="P152" s="205"/>
+      <c r="Q152" s="205"/>
+      <c r="R152" s="205"/>
+      <c r="S152" s="205"/>
+      <c r="T152" s="205"/>
+      <c r="U152" s="205"/>
+      <c r="V152" s="205"/>
+      <c r="W152" s="197"/>
+    </row>
+    <row r="153" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B153" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C153" s="49">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N153" s="205"/>
+      <c r="O153" s="205"/>
+      <c r="P153" s="205"/>
+      <c r="Q153" s="205"/>
+      <c r="R153" s="205"/>
+      <c r="S153" s="205"/>
+      <c r="T153" s="205"/>
+      <c r="U153" s="205"/>
+      <c r="V153" s="205"/>
+      <c r="W153" s="197"/>
+    </row>
+    <row r="154" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B154" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C154" s="38">
+        <v>570000</v>
+      </c>
+      <c r="N154" s="205"/>
+      <c r="O154" s="205"/>
+      <c r="P154" s="205"/>
+      <c r="Q154" s="205"/>
+      <c r="R154" s="205"/>
+      <c r="S154" s="205"/>
+      <c r="T154" s="205"/>
+      <c r="U154" s="205"/>
+      <c r="V154" s="205"/>
+      <c r="W154" s="198"/>
+    </row>
+    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B155" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C155" s="50">
+        <f>-FV(C153,C152*12,,C154)</f>
+        <v>1113165.0257064542</v>
+      </c>
+      <c r="N155" s="205"/>
+      <c r="O155" s="205"/>
+      <c r="P155" s="205"/>
+      <c r="Q155" s="205"/>
+      <c r="R155" s="205"/>
+      <c r="S155" s="205"/>
+      <c r="T155" s="205"/>
+      <c r="U155" s="205"/>
+      <c r="V155" s="205"/>
+      <c r="W155" s="199"/>
+    </row>
+    <row r="156" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="200">
+        <v>0.8</v>
+      </c>
+      <c r="C156" s="51">
+        <f>0.8*C155</f>
+        <v>890532.02056516334</v>
+      </c>
+      <c r="N156" s="205"/>
+      <c r="O156" s="205"/>
+      <c r="P156" s="205"/>
+      <c r="Q156" s="205"/>
+      <c r="R156" s="205"/>
+      <c r="S156" s="205"/>
+      <c r="T156" s="205"/>
+      <c r="U156" s="205"/>
+      <c r="V156" s="205"/>
+      <c r="W156" s="199"/>
+    </row>
+    <row r="157" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N157" s="205"/>
+      <c r="O157" s="205"/>
+      <c r="P157" s="205"/>
+      <c r="Q157" s="205"/>
+      <c r="R157" s="205"/>
+      <c r="S157" s="205"/>
+      <c r="T157" s="205"/>
+      <c r="U157" s="205"/>
+      <c r="V157" s="205"/>
+      <c r="W157" s="199"/>
+    </row>
+    <row r="158" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B158" s="185" t="s">
+        <v>115</v>
+      </c>
+      <c r="C158" s="186"/>
+      <c r="D158" s="186"/>
+      <c r="E158" s="186"/>
+      <c r="F158" s="187" t="s">
+        <v>17</v>
+      </c>
+      <c r="N158" s="205"/>
+      <c r="O158" s="205"/>
+      <c r="P158" s="205"/>
+      <c r="Q158" s="205"/>
+      <c r="R158" s="205"/>
+      <c r="S158" s="205"/>
+      <c r="T158" s="205"/>
+      <c r="U158" s="205"/>
+      <c r="V158" s="205"/>
+      <c r="W158" s="199"/>
+    </row>
+    <row r="159" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B159" s="188" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="189" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="189" t="s">
+        <v>29</v>
+      </c>
+      <c r="F159" s="38">
+        <f>F140-C156</f>
+        <v>21336571.386438999</v>
+      </c>
+      <c r="G159" s="167"/>
+      <c r="N159" s="205"/>
+      <c r="O159" s="205"/>
+      <c r="P159" s="205"/>
+      <c r="Q159" s="205"/>
+      <c r="R159" s="205"/>
+      <c r="S159" s="205"/>
+      <c r="T159" s="205"/>
+      <c r="U159" s="205"/>
+      <c r="V159" s="205"/>
+      <c r="W159" s="197"/>
+    </row>
+    <row r="160" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B160" s="24">
+        <v>1</v>
+      </c>
+      <c r="C160" s="3">
+        <f>F159*$H$146</f>
+        <v>128019.428318634</v>
+      </c>
+      <c r="D160" s="15">
+        <f>-PMT($H$160,$H$161,$F$159)</f>
+        <v>7197706.9292096086</v>
+      </c>
+      <c r="E160" s="4">
+        <f>D160-C160</f>
+        <v>7069687.5008909749</v>
+      </c>
+      <c r="F160" s="38">
+        <f>F159-E160</f>
+        <v>14266883.885548025</v>
+      </c>
+      <c r="G160" s="167" t="s">
+        <v>109</v>
+      </c>
+      <c r="H160" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N160" s="205"/>
+      <c r="O160" s="205"/>
+      <c r="P160" s="205"/>
+      <c r="Q160" s="205"/>
+      <c r="R160" s="205"/>
+      <c r="S160" s="205"/>
+      <c r="T160" s="205"/>
+      <c r="U160" s="205"/>
+      <c r="V160" s="205"/>
+      <c r="W160" s="197"/>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B161" s="194">
+        <v>2</v>
+      </c>
+      <c r="C161" s="3">
+        <f t="shared" ref="C161:C162" si="23">F160*$H$146</f>
+        <v>85601.303313288154</v>
+      </c>
+      <c r="D161" s="15">
+        <f t="shared" ref="D161:D162" si="24">-PMT($H$160,$H$161,$F$159)</f>
+        <v>7197706.9292096086</v>
+      </c>
+      <c r="E161" s="195">
+        <f t="shared" ref="E161:E162" si="25">D161-C161</f>
+        <v>7112105.6258963207</v>
+      </c>
+      <c r="F161" s="196">
+        <f t="shared" ref="F161:F162" si="26">F160-E161</f>
+        <v>7154778.2596517047</v>
+      </c>
+      <c r="G161" t="s">
+        <v>110</v>
+      </c>
+      <c r="H161">
+        <v>3</v>
+      </c>
+      <c r="N161" s="205"/>
+      <c r="O161" s="205"/>
+      <c r="P161" s="205"/>
+      <c r="Q161" s="205"/>
+      <c r="R161" s="205"/>
+      <c r="S161" s="205"/>
+      <c r="T161" s="205"/>
+      <c r="U161" s="205"/>
+      <c r="V161" s="205"/>
+      <c r="W161" s="197"/>
+    </row>
+    <row r="162" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="27">
+        <v>3</v>
+      </c>
+      <c r="C162" s="45">
+        <f t="shared" si="23"/>
+        <v>42928.669557910231</v>
+      </c>
+      <c r="D162" s="15">
+        <f t="shared" si="24"/>
+        <v>7197706.9292096086</v>
+      </c>
+      <c r="E162" s="39">
+        <f t="shared" si="25"/>
+        <v>7154778.2596516982</v>
+      </c>
+      <c r="F162" s="40">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N162" s="205"/>
+      <c r="O162" s="205"/>
+      <c r="P162" s="205"/>
+      <c r="Q162" s="205"/>
+      <c r="R162" s="205"/>
+      <c r="S162" s="205"/>
+      <c r="T162" s="205"/>
+      <c r="U162" s="205"/>
+      <c r="V162" s="205"/>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A164" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>117</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" t="s">
+        <v>82</v>
+      </c>
+      <c r="E166" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167" s="13">
+        <f>$D$135</f>
+        <v>8329227.4942965871</v>
+      </c>
+      <c r="E167" s="13">
+        <f>-PV($C$165,C167,,D167)</f>
+        <v>8086628.6352394046</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168" s="13">
+        <f>$D$135</f>
+        <v>8329227.4942965871</v>
+      </c>
+      <c r="E168" s="13">
+        <f t="shared" ref="E168:E171" si="27">-PV($C$165,C168,,D168)</f>
+        <v>7851095.7623683549</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169" s="13">
+        <f>$D$160</f>
+        <v>7197706.9292096086</v>
+      </c>
+      <c r="E169" s="13">
+        <f t="shared" si="27"/>
+        <v>6586921.4627346154</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>4</v>
+      </c>
+      <c r="D170" s="13">
+        <f t="shared" ref="D170:D171" si="28">$D$160</f>
+        <v>7197706.9292096086</v>
+      </c>
+      <c r="E170" s="13">
+        <f t="shared" si="27"/>
+        <v>6395069.3812957443</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>5</v>
+      </c>
+      <c r="D171" s="13">
+        <f t="shared" si="28"/>
+        <v>7197706.9292096086</v>
+      </c>
+      <c r="E171" s="13">
+        <f t="shared" si="27"/>
+        <v>6208805.2245589755</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>118</v>
+      </c>
+      <c r="F173" s="13">
+        <f>SUM(E167:E171)</f>
+        <v>35128520.466197096</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A175" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>40</v>
+      </c>
+      <c r="D176" s="1">
+        <f>F140</f>
+        <v>22227103.407004163</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>101</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>102</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>119</v>
+      </c>
+      <c r="D179" s="1">
+        <f>-FV(D177,D178,,D176)-D176</f>
+        <v>673503.46033563092</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>43</v>
+      </c>
+      <c r="D180" s="1">
+        <f>D179+D176</f>
+        <v>22900606.867339794</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="S82:U82"/>
-    <mergeCell ref="S83:U83"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="A4:W5"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L19:M19"/>
+  <mergeCells count="100">
+    <mergeCell ref="O130:Q130"/>
+    <mergeCell ref="S130:U130"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="L141:N141"/>
+    <mergeCell ref="L144:N144"/>
+    <mergeCell ref="L145:N145"/>
+    <mergeCell ref="L142:N142"/>
+    <mergeCell ref="L143:N143"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="K130:L131"/>
+    <mergeCell ref="M130:M131"/>
+    <mergeCell ref="K132:L133"/>
+    <mergeCell ref="M132:M133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="A109:W110"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="H81:I81"/>
     <mergeCell ref="H77:L77"/>
     <mergeCell ref="H80:I80"/>
     <mergeCell ref="Q36:T36"/>
@@ -3112,37 +4942,39 @@
     <mergeCell ref="K36:N36"/>
     <mergeCell ref="N75:O75"/>
     <mergeCell ref="N76:O76"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A4:W5"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="N84:O84"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="S83:U83"/>
+    <mergeCell ref="S76:U76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3152,67 +4984,857 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADE5909-3DB5-49AF-BAAF-5BDDB8D47754}">
-  <dimension ref="A3:W5"/>
+  <dimension ref="A3:W54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="110"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="113"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="140"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="148" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="150"/>
+      <c r="H7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="143"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="153" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="154" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="168" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="121" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="123">
+        <f>D9*POWER(1+E9,F9)</f>
+        <v>1628.8946267774415</v>
+      </c>
+      <c r="D9" s="118">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="115">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="116">
+        <v>10</v>
+      </c>
+      <c r="G9" s="117">
+        <f>C9</f>
+        <v>1628.8946267774415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="121"/>
+      <c r="B10" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="125">
+        <f>-FV(E9,F9,,D9)</f>
+        <v>1628.8946267774415</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="125">
+        <f>-PV(E9,F9,,G9)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="127"/>
+      <c r="B12" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="129">
+        <f>G9/POWER(1+E9,F9)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="140"/>
+      <c r="C15" s="141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="143"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="146"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="133">
+        <f>POWER(1+(C17/F17),H17) -1</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="202">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D17" s="202"/>
+      <c r="E17" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="124">
         <v>1</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="100"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="103"/>
+      <c r="G17" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="133">
+        <f>POWER(1+(C18/F18),H18) -1</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="130"/>
+      <c r="C18" s="202">
+        <f>C17</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D18" s="202"/>
+      <c r="E18" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="124">
+        <v>1</v>
+      </c>
+      <c r="G18" s="131" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="133">
+        <f>POWER(1+(C19/F19),H19) -1</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="130"/>
+      <c r="C19" s="202">
+        <f t="shared" ref="C19:C32" si="0">C18</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D19" s="202"/>
+      <c r="E19" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="124">
+        <v>1</v>
+      </c>
+      <c r="G19" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="133">
+        <f>POWER(1+(C20/F20),H20) -1</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="130"/>
+      <c r="C20" s="202">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D20" s="202"/>
+      <c r="E20" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="124">
+        <v>1</v>
+      </c>
+      <c r="G20" s="131" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="133">
+        <f>POWER(1+(C21/F21),H21) -1</f>
+        <v>1.6064000000000078E-2</v>
+      </c>
+      <c r="B21" s="130"/>
+      <c r="C21" s="202">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D21" s="202"/>
+      <c r="E21" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="124">
+        <v>2</v>
+      </c>
+      <c r="G21" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="133">
+        <f>POWER(1+(C22/F22),H22) -1</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="B22" s="130"/>
+      <c r="C22" s="202">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D22" s="202"/>
+      <c r="E22" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="124">
+        <v>2</v>
+      </c>
+      <c r="G22" s="131" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="133">
+        <f>POWER(1+(C23/F23),H23) -1</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="130"/>
+      <c r="C23" s="202">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D23" s="202"/>
+      <c r="E23" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="124">
+        <v>2</v>
+      </c>
+      <c r="G23" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="133">
+        <f>POWER(1+(C24/F24),H24) -1</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="130"/>
+      <c r="C24" s="202">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D24" s="202"/>
+      <c r="E24" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="124">
+        <v>2</v>
+      </c>
+      <c r="G24" s="131" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="133">
+        <f>POWER(1+(C25/F25),H25) -1</f>
+        <v>1.6096256256000085E-2</v>
+      </c>
+      <c r="B25" s="130"/>
+      <c r="C25" s="202">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D25" s="202"/>
+      <c r="E25" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="124">
+        <v>4</v>
+      </c>
+      <c r="G25" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="134">
+        <v>4</v>
+      </c>
+      <c r="L25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="133">
+        <f>POWER(1+(C26/F26),H26) -1</f>
+        <v>8.0160000000000231E-3</v>
+      </c>
+      <c r="B26" s="130"/>
+      <c r="C26" s="202">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D26" s="202"/>
+      <c r="E26" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="124">
+        <v>4</v>
+      </c>
+      <c r="G26" s="131" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="133">
+        <f>POWER(1+(C27/F27),H27) -1</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="B27" s="130"/>
+      <c r="C27" s="202">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D27" s="202"/>
+      <c r="E27" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="124">
+        <v>4</v>
+      </c>
+      <c r="G27" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="133">
+        <f>POWER(1+(C28/F28),H28) -1</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="130"/>
+      <c r="C28" s="202">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D28" s="202"/>
+      <c r="E28" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="124">
+        <v>4</v>
+      </c>
+      <c r="G28" s="131" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="133">
+        <f>POWER(1+(C29/F29),H29) -1</f>
+        <v>1.6117856382603435E-2</v>
+      </c>
+      <c r="B29" s="130"/>
+      <c r="C29" s="202">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D29" s="202"/>
+      <c r="E29" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="124">
+        <v>12</v>
+      </c>
+      <c r="G29" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="134">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="133">
+        <f>POWER(1+(C30/F30),H30) -1</f>
+        <v>8.0267141215075721E-3</v>
+      </c>
+      <c r="B30" s="130"/>
+      <c r="C30" s="202">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D30" s="202"/>
+      <c r="E30" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="124">
+        <v>12</v>
+      </c>
+      <c r="G30" s="131" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="133">
+        <f>POWER(1+(C31/F31),H31) -1</f>
+        <v>4.0053357037039827E-3</v>
+      </c>
+      <c r="B31" s="130"/>
+      <c r="C31" s="202">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D31" s="202"/>
+      <c r="E31" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="124">
+        <v>12</v>
+      </c>
+      <c r="G31" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="135">
+        <f>POWER(1+(C32/F32),H32) -1</f>
+        <v>1.3333333333334085E-3</v>
+      </c>
+      <c r="B32" s="136"/>
+      <c r="C32" s="203">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D32" s="203"/>
+      <c r="E32" s="128" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="128">
+        <v>12</v>
+      </c>
+      <c r="G32" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="140"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="164" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="166"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="143"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="152" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="153" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="163"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="158">
+        <f>-PMT(F40,E40,D40)</f>
+        <v>11379731.896831043</v>
+      </c>
+      <c r="C40" s="132"/>
+      <c r="D40" s="118">
+        <v>65000000</v>
+      </c>
+      <c r="E40" s="116">
+        <v>8</v>
+      </c>
+      <c r="F40" s="155">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="G40" s="156"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="159" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="160">
+        <f>D40*(F40*POWER(1+F40,E40)/(POWER(1+F40,E40)-1))</f>
+        <v>11379731.896831054</v>
+      </c>
+      <c r="C41" s="161"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="169" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="170"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="165" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="166"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="172"/>
+      <c r="B44" s="173"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="152" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="153" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="163"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="157" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="158">
+        <f>-PV(F45,E45,D45)</f>
+        <v>294.03131444078036</v>
+      </c>
+      <c r="C45" s="132"/>
+      <c r="D45" s="118">
+        <v>110</v>
+      </c>
+      <c r="E45" s="116">
+        <v>3</v>
+      </c>
+      <c r="F45" s="155">
+        <v>0.06</v>
+      </c>
+      <c r="G45" s="156"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="159" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="160">
+        <f>D45*((POWER(1+F45,E45)-1)/(F45*POWER(1+F45,E45)))</f>
+        <v>294.03131444078036</v>
+      </c>
+      <c r="C46" s="161"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="139" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="140"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="148" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="149"/>
+      <c r="F49" s="149"/>
+      <c r="G49" s="149"/>
+      <c r="H49" s="150"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="143"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="151"/>
+      <c r="D50" s="177" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="162"/>
+      <c r="F50" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" s="162"/>
+      <c r="H50" s="154" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="121" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="179" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="180">
+        <f>D51*F51*H51</f>
+        <v>1357350.3</v>
+      </c>
+      <c r="D51" s="178">
+        <v>45245010</v>
+      </c>
+      <c r="E51" s="87"/>
+      <c r="F51" s="175">
+        <v>0.01</v>
+      </c>
+      <c r="G51" s="87"/>
+      <c r="H51" s="176">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="121"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="183" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="125">
+        <f>D51*(POWER(1+F51,H51)-1)</f>
+        <v>1370969.0480099961</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="184"/>
+      <c r="B54" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="129">
+        <f>-FV(F51,H51,,D51)-D51</f>
+        <v>1370969.0480099991</v>
+      </c>
+      <c r="O54" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="65">
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="A43:C44"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A7:C8"/>
     <mergeCell ref="A4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2024-2/Evaluación de proyectos/Excels/Estudio_C1.xlsx
+++ b/2024-2/Evaluación de proyectos/Excels/Estudio_C1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IVAN\Desktop\Codes\Apuntes_2024\2024-2\Evaluación de proyectos\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE53FACB-4E71-4354-A856-1D900547D0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B22384-96CD-4871-94B8-B7E76495B466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E2B48C4-17E3-4387-8B2C-BD530D7BDFF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2E2B48C4-17E3-4387-8B2C-BD530D7BDFF8}"/>
   </bookViews>
   <sheets>
     <sheet name="EJERCICIOS" sheetId="1" r:id="rId1"/>
-    <sheet name="FORMULARIO" sheetId="2" r:id="rId2"/>
+    <sheet name="FORMULARIO" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1027,7 +1027,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1093,399 +1093,384 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
@@ -1864,25 +1849,20 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>118110</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>30304</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1224915" cy="775159"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD7072B-C2E7-45A0-A749-2809F65C699D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB45489C-A6C0-443F-989F-9F9A849095EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1878,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3947160" y="1779270"/>
+          <a:off x="4080510" y="1779270"/>
           <a:ext cx="1224915" cy="775159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1907,26 +1887,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>36195</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>59055</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>64992</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>131506</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1552797" cy="453451"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E529DF70-7B95-4004-A1C4-097734C6638B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F8AB36B-A163-4DF7-B520-50B0CDAD6117}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1917,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2341245" y="1811655"/>
+          <a:off x="2474595" y="1811655"/>
           <a:ext cx="1552797" cy="453451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1951,26 +1926,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>715028</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38184</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="4677428" cy="600159"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C09C03-F637-EB81-908D-6F4C3DA6CE83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8943869-29B7-4DC6-8B36-AC273B04576D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,26 +1965,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76419</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114382</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1571844" cy="590632"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 10">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FEF7257-AF25-23D4-579C-8A985C0512D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37D6301-1A0D-4884-B7D7-722B0ACFCE60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +1995,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5381625" y="7229475"/>
+          <a:off x="5514975" y="7229475"/>
           <a:ext cx="1571844" cy="590632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2039,26 +2004,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>188595</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>30682</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>36283</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1448002" cy="628738"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagen 11">
+        <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38483B5E-33B8-ECB7-2B0A-1F066CE7C23F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3A5957-73EB-4BA7-97A0-050E96032769}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +2034,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5459730" y="8094345"/>
+          <a:off x="5593080" y="8094345"/>
           <a:ext cx="1448002" cy="628738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2083,26 +2043,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>97274</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="4371975" cy="887849"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 12">
+        <xdr:cNvPr id="7" name="Imagen 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE46ECDA-61D3-493E-842E-108846599A85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9360D2FF-FADE-40E6-9256-72136690E8C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,7 +2073,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286500" y="9258300"/>
+          <a:off x="6419850" y="9258300"/>
           <a:ext cx="4371975" cy="887849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2127,26 +2082,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>734308</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>28671</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="6325483" cy="685896"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Imagen 14">
+        <xdr:cNvPr id="8" name="Imagen 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674A39DB-7B8C-15D7-E7A4-97BA69E16D97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE2B510-EC4A-4B84-8F37-B78D299F9391}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2112,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4333875" y="10163175"/>
+          <a:off x="4467225" y="10163175"/>
           <a:ext cx="6325483" cy="685896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2171,7 +2121,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2494,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E42C7D-F581-42F8-AD0E-E228090ADEFE}">
   <dimension ref="A3:W180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C119" workbookViewId="0">
-      <selection activeCell="O151" sqref="O151"/>
+    <sheetView topLeftCell="C119" workbookViewId="0">
+      <selection activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2513,157 +2463,157 @@
   <sheetData>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="66"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="69"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="102"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="82" t="s">
+      <c r="L17" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="M17" s="83"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="16">
         <v>3000</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="71"/>
+      <c r="E18" s="134"/>
       <c r="F18" s="8">
         <v>1200</v>
       </c>
-      <c r="L18" s="84" t="s">
+      <c r="L18" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="85"/>
+      <c r="M18" s="124"/>
       <c r="N18" s="5">
         <v>0.03</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="73"/>
+      <c r="E19" s="136"/>
       <c r="F19" s="9">
         <v>0.05</v>
       </c>
-      <c r="L19" s="61" t="s">
+      <c r="L19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="62"/>
+      <c r="M19" s="79"/>
       <c r="N19" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="75"/>
+      <c r="E20" s="138"/>
       <c r="F20" s="10">
         <v>1</v>
       </c>
-      <c r="L20" s="61" t="s">
+      <c r="L20" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="62"/>
+      <c r="M20" s="79"/>
       <c r="N20" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="77"/>
+      <c r="E21" s="140"/>
       <c r="F21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="61" t="s">
+      <c r="L21" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="62"/>
+      <c r="M21" s="79"/>
       <c r="N21" s="17">
         <f>(1+N18/N19)^1 -1</f>
         <v>2.4999999999999467E-3</v>
       </c>
     </row>
     <row r="22" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="86" t="s">
+      <c r="L22" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="87"/>
+      <c r="M22" s="132"/>
       <c r="N22" s="32">
         <f>-PMT(N21,N19,,N17)</f>
         <v>246.5810962754669</v>
       </c>
     </row>
     <row r="23" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="79"/>
+      <c r="E23" s="128"/>
       <c r="F23" s="31">
         <f>F18/(1+F19)</f>
         <v>1142.8571428571429</v>
       </c>
     </row>
     <row r="24" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="81"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="12">
         <f>-PV(F19,F20,,F18)</f>
         <v>1142.8571428571429</v>
@@ -2671,31 +2621,31 @@
     </row>
     <row r="35" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="83"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="16">
         <v>25000</v>
       </c>
-      <c r="K36" s="91" t="s">
+      <c r="K36" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="93"/>
-      <c r="Q36" s="91" t="s">
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="118"/>
+      <c r="Q36" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="R36" s="92"/>
-      <c r="S36" s="92"/>
-      <c r="T36" s="93"/>
+      <c r="R36" s="117"/>
+      <c r="S36" s="117"/>
+      <c r="T36" s="118"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="85"/>
+      <c r="C37" s="124"/>
       <c r="D37" s="5">
         <v>0.04</v>
       </c>
@@ -2704,10 +2654,10 @@
       </c>
     </row>
     <row r="38" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="60"/>
+      <c r="C38" s="96"/>
       <c r="D38" s="7">
         <v>5</v>
       </c>
@@ -2748,10 +2698,10 @@
       </c>
     </row>
     <row r="40" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="99" t="s">
+      <c r="B40" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="100"/>
+      <c r="C40" s="126"/>
       <c r="D40" s="18">
         <f>-PMT(D37,D38,D36)</f>
         <v>5615.6778373258485</v>
@@ -2825,12 +2775,12 @@
         <f>F42-E43</f>
         <v>20384.322162674151</v>
       </c>
-      <c r="M43" s="94" t="s">
+      <c r="M43" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="N43" s="94"/>
-      <c r="O43" s="94"/>
-      <c r="P43" s="94"/>
+      <c r="N43" s="109"/>
+      <c r="O43" s="109"/>
+      <c r="P43" s="109"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="24">
@@ -2918,10 +2868,10 @@
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="101" t="s">
+      <c r="C49" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="102"/>
+      <c r="D49" s="106"/>
       <c r="E49" s="30">
         <f>SUM(C43:C47)</f>
         <v>3078.3891866292392</v>
@@ -2929,72 +2879,72 @@
     </row>
     <row r="50" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="65"/>
-      <c r="R51" s="65"/>
-      <c r="S51" s="65"/>
-      <c r="T51" s="65"/>
-      <c r="U51" s="65"/>
-      <c r="V51" s="65"/>
-      <c r="W51" s="66"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="98"/>
+      <c r="K51" s="98"/>
+      <c r="L51" s="98"/>
+      <c r="M51" s="98"/>
+      <c r="N51" s="98"/>
+      <c r="O51" s="98"/>
+      <c r="P51" s="98"/>
+      <c r="Q51" s="98"/>
+      <c r="R51" s="98"/>
+      <c r="S51" s="98"/>
+      <c r="T51" s="98"/>
+      <c r="U51" s="98"/>
+      <c r="V51" s="98"/>
+      <c r="W51" s="99"/>
     </row>
     <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="67"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="68"/>
-      <c r="N52" s="68"/>
-      <c r="O52" s="68"/>
-      <c r="P52" s="68"/>
-      <c r="Q52" s="68"/>
-      <c r="R52" s="68"/>
-      <c r="S52" s="68"/>
-      <c r="T52" s="68"/>
-      <c r="U52" s="68"/>
-      <c r="V52" s="68"/>
-      <c r="W52" s="69"/>
+      <c r="A52" s="100"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="101"/>
+      <c r="K52" s="101"/>
+      <c r="L52" s="101"/>
+      <c r="M52" s="101"/>
+      <c r="N52" s="101"/>
+      <c r="O52" s="101"/>
+      <c r="P52" s="101"/>
+      <c r="Q52" s="101"/>
+      <c r="R52" s="101"/>
+      <c r="S52" s="101"/>
+      <c r="T52" s="101"/>
+      <c r="U52" s="101"/>
+      <c r="V52" s="101"/>
+      <c r="W52" s="102"/>
     </row>
     <row r="71" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="95" t="s">
+      <c r="B72" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="C72" s="96"/>
+      <c r="C72" s="120"/>
       <c r="D72" s="34">
         <v>65000000</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B73" s="97" t="s">
+      <c r="B73" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="98"/>
+      <c r="C73" s="122"/>
       <c r="D73" s="35">
         <v>0.08</v>
       </c>
@@ -3017,28 +2967,28 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B74" s="97" t="s">
+      <c r="B74" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="98"/>
+      <c r="C74" s="122"/>
       <c r="D74" s="36">
         <v>2</v>
       </c>
-      <c r="N74" s="61" t="s">
+      <c r="N74" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="O74" s="62"/>
+      <c r="O74" s="79"/>
       <c r="P74" s="4">
         <v>25</v>
       </c>
       <c r="Q74" s="6">
         <v>25</v>
       </c>
-      <c r="S74" s="61" t="s">
+      <c r="S74" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="T74" s="62"/>
-      <c r="U74" s="62"/>
+      <c r="T74" s="79"/>
+      <c r="U74" s="79"/>
       <c r="V74" s="48">
         <v>2E-3</v>
       </c>
@@ -3047,28 +2997,28 @@
       </c>
     </row>
     <row r="75" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="103" t="s">
+      <c r="B75" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="104"/>
+      <c r="C75" s="111"/>
       <c r="D75" s="37">
         <v>8</v>
       </c>
-      <c r="N75" s="61" t="s">
+      <c r="N75" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="O75" s="62"/>
+      <c r="O75" s="79"/>
       <c r="P75" s="4">
         <v>65</v>
       </c>
       <c r="Q75" s="6">
         <v>60</v>
       </c>
-      <c r="S75" s="61" t="s">
+      <c r="S75" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="T75" s="62"/>
-      <c r="U75" s="62"/>
+      <c r="T75" s="79"/>
+      <c r="U75" s="79"/>
       <c r="V75" s="15">
         <f>-FV(V74,P78,P82)</f>
         <v>174677985.10748067</v>
@@ -3079,21 +3029,21 @@
       </c>
     </row>
     <row r="76" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N76" s="61" t="s">
+      <c r="N76" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="O76" s="62"/>
+      <c r="O76" s="79"/>
       <c r="P76" s="4">
         <v>85</v>
       </c>
       <c r="Q76" s="6">
         <v>90</v>
       </c>
-      <c r="S76" s="59" t="s">
+      <c r="S76" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="T76" s="60"/>
-      <c r="U76" s="60"/>
+      <c r="T76" s="96"/>
+      <c r="U76" s="96"/>
       <c r="V76" s="29">
         <f>PMT(V74,P80,-V75)</f>
         <v>917137.57956119278</v>
@@ -3107,24 +3057,24 @@
       <c r="A77" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="88" t="s">
+      <c r="B77" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="90"/>
-      <c r="H77" s="88" t="s">
+      <c r="C77" s="114"/>
+      <c r="D77" s="114"/>
+      <c r="E77" s="114"/>
+      <c r="F77" s="115"/>
+      <c r="H77" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="I77" s="89"/>
-      <c r="J77" s="89"/>
-      <c r="K77" s="89"/>
-      <c r="L77" s="90"/>
-      <c r="N77" s="61" t="s">
+      <c r="I77" s="114"/>
+      <c r="J77" s="114"/>
+      <c r="K77" s="114"/>
+      <c r="L77" s="115"/>
+      <c r="N77" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="O77" s="62"/>
+      <c r="O77" s="79"/>
       <c r="P77" s="4">
         <f>P75-P74</f>
         <v>40</v>
@@ -3133,16 +3083,16 @@
         <f>Q75-Q74</f>
         <v>35</v>
       </c>
-      <c r="S77" s="63"/>
-      <c r="T77" s="63"/>
-      <c r="U77" s="63"/>
+      <c r="S77" s="104"/>
+      <c r="T77" s="104"/>
+      <c r="U77" s="104"/>
       <c r="V77" s="13"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N78" s="61" t="s">
+      <c r="N78" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="O78" s="62"/>
+      <c r="O78" s="79"/>
       <c r="P78" s="4">
         <f>P77*12</f>
         <v>480</v>
@@ -3162,26 +3112,26 @@
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B79" s="105" t="s">
+      <c r="B79" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="C79" s="105"/>
+      <c r="C79" s="112"/>
       <c r="D79">
         <f>POWER(1+(D73/D74),2) -1</f>
         <v>8.1600000000000117E-2</v>
       </c>
-      <c r="H79" s="63" t="s">
+      <c r="H79" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="I79" s="63"/>
+      <c r="I79" s="104"/>
       <c r="J79" s="1">
         <f>F85</f>
         <v>45245009.51578369</v>
       </c>
-      <c r="N79" s="61" t="s">
+      <c r="N79" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="O79" s="62"/>
+      <c r="O79" s="79"/>
       <c r="P79" s="4">
         <f>P76-P75</f>
         <v>20</v>
@@ -3190,11 +3140,11 @@
         <f>Q76-Q75</f>
         <v>30</v>
       </c>
-      <c r="S79" s="53" t="s">
+      <c r="S79" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="T79" s="54"/>
-      <c r="U79" s="55"/>
+      <c r="T79" s="84"/>
+      <c r="U79" s="85"/>
       <c r="V79" s="3">
         <v>300000</v>
       </c>
@@ -3203,25 +3153,25 @@
       </c>
     </row>
     <row r="80" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="63" t="s">
+      <c r="B80" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="63"/>
+      <c r="C80" s="104"/>
       <c r="D80" s="13">
         <f>-PMT(D79,D75,D72)</f>
         <v>11379731.896831045</v>
       </c>
-      <c r="H80" s="63" t="s">
+      <c r="H80" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="I80" s="63"/>
+      <c r="I80" s="104"/>
       <c r="J80" s="2">
         <v>0.05</v>
       </c>
-      <c r="N80" s="61" t="s">
+      <c r="N80" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="O80" s="62"/>
+      <c r="O80" s="79"/>
       <c r="P80" s="4">
         <f>12*P79</f>
         <v>240</v>
@@ -3230,11 +3180,11 @@
         <f>12*Q79</f>
         <v>360</v>
       </c>
-      <c r="S80" s="53" t="s">
+      <c r="S80" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="T80" s="54"/>
-      <c r="U80" s="55"/>
+      <c r="T80" s="84"/>
+      <c r="U80" s="85"/>
       <c r="V80" s="15">
         <f>V76+V79</f>
         <v>1217137.5795611928</v>
@@ -3252,17 +3202,17 @@
       <c r="F81" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H81" s="63" t="s">
+      <c r="H81" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="I81" s="63"/>
+      <c r="I81" s="104"/>
       <c r="J81">
         <v>3</v>
       </c>
-      <c r="N81" s="61" t="s">
+      <c r="N81" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="O81" s="62"/>
+      <c r="O81" s="79"/>
       <c r="P81" s="3">
         <v>1670000</v>
       </c>
@@ -3270,11 +3220,11 @@
         <f>P81*0.8</f>
         <v>1336000</v>
       </c>
-      <c r="S81" s="53" t="s">
+      <c r="S81" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="T81" s="54"/>
-      <c r="U81" s="55"/>
+      <c r="T81" s="84"/>
+      <c r="U81" s="85"/>
       <c r="V81" s="15">
         <f>-PV(V74,P80,V80)</f>
         <v>231815972.5807614</v>
@@ -3301,18 +3251,18 @@
         <f>D72</f>
         <v>65000000</v>
       </c>
-      <c r="H82" s="63" t="s">
+      <c r="H82" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="I82" s="63"/>
+      <c r="I82" s="104"/>
       <c r="J82" s="13">
         <f>-PMT(J80,J81,J79)</f>
         <v>16614355.001017952</v>
       </c>
-      <c r="N82" s="61" t="s">
+      <c r="N82" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="O82" s="62"/>
+      <c r="O82" s="79"/>
       <c r="P82" s="3">
         <f>0.13*P81</f>
         <v>217100</v>
@@ -3321,11 +3271,11 @@
         <f>0.13*Q81</f>
         <v>173680</v>
       </c>
-      <c r="S82" s="53" t="s">
+      <c r="S82" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="T82" s="54"/>
-      <c r="U82" s="55"/>
+      <c r="T82" s="84"/>
+      <c r="U82" s="85"/>
       <c r="V82" s="15">
         <f>-PMT(V74,P78,,V81)</f>
         <v>288114.42733505159</v>
@@ -3340,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="15">
-        <f>F82*$D$79</f>
+        <f t="shared" ref="C83:C90" si="5">F82*$D$79</f>
         <v>5304000.0000000075</v>
       </c>
       <c r="D83" s="15">
@@ -3362,10 +3312,10 @@
       <c r="L83" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N83" s="61" t="s">
+      <c r="N83" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="O83" s="62"/>
+      <c r="O83" s="79"/>
       <c r="P83" s="3">
         <f>0.07*P81</f>
         <v>116900.00000000001</v>
@@ -3374,11 +3324,11 @@
         <f>0.07*Q81</f>
         <v>93520.000000000015</v>
       </c>
-      <c r="S83" s="56" t="s">
+      <c r="S83" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="T83" s="57"/>
-      <c r="U83" s="58"/>
+      <c r="T83" s="87"/>
+      <c r="U83" s="88"/>
       <c r="V83" s="29">
         <f>V82-P82</f>
         <v>71014.427335051587</v>
@@ -3393,19 +3343,19 @@
         <v>2</v>
       </c>
       <c r="C84" s="15">
-        <f>F83*$D$79</f>
+        <f t="shared" si="5"/>
         <v>4808220.2772185942</v>
       </c>
       <c r="D84" s="15">
-        <f t="shared" ref="D84:D90" si="5">$D$80</f>
+        <f t="shared" ref="D84:D90" si="6">$D$80</f>
         <v>11379731.896831045</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" ref="E84:E90" si="6">D84-C84</f>
+        <f t="shared" ref="E84:E90" si="7">D84-C84</f>
         <v>6571511.6196124507</v>
       </c>
       <c r="F84" s="38">
-        <f t="shared" ref="F84:F90" si="7">F83-E84</f>
+        <f t="shared" ref="F84:F90" si="8">F83-E84</f>
         <v>52352756.483556516</v>
       </c>
       <c r="H84" s="24" t="s">
@@ -3424,10 +3374,10 @@
         <f>J79</f>
         <v>45245009.51578369</v>
       </c>
-      <c r="N84" s="61" t="s">
+      <c r="N84" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="O84" s="62"/>
+      <c r="O84" s="79"/>
       <c r="P84" s="3">
         <f>P81-P82-P83</f>
         <v>1336000</v>
@@ -3442,19 +3392,19 @@
         <v>3</v>
       </c>
       <c r="C85" s="42">
-        <f>F84*$D$79</f>
+        <f t="shared" si="5"/>
         <v>4271984.9290582174</v>
       </c>
       <c r="D85" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11379731.896831045</v>
       </c>
       <c r="E85" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7107746.9677728275</v>
       </c>
       <c r="F85" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45245009.51578369</v>
       </c>
       <c r="H85" s="24">
@@ -3476,10 +3426,10 @@
         <f>L84-K85</f>
         <v>30892904.990554921</v>
       </c>
-      <c r="N85" s="61" t="s">
+      <c r="N85" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="O85" s="62"/>
+      <c r="O85" s="79"/>
       <c r="P85" s="3">
         <f>0.1*P84</f>
         <v>133600</v>
@@ -3494,44 +3444,44 @@
         <v>4</v>
       </c>
       <c r="C86" s="15">
-        <f>F85*$D$79</f>
+        <f t="shared" si="5"/>
         <v>3691992.7764879544</v>
       </c>
       <c r="D86" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11379731.896831045</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7687739.120343091</v>
       </c>
       <c r="F86" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37557270.395440601</v>
       </c>
       <c r="H86" s="24">
         <v>2</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" ref="I86:I87" si="8">L85*$J$80</f>
+        <f t="shared" ref="I86:I87" si="9">L85*$J$80</f>
         <v>1544645.2495277461</v>
       </c>
       <c r="J86" s="15">
-        <f t="shared" ref="J86:J87" si="9">$J$82</f>
+        <f t="shared" ref="J86:J87" si="10">$J$82</f>
         <v>16614355.001017952</v>
       </c>
       <c r="K86" s="4">
-        <f t="shared" ref="K86:K87" si="10">J86-I86</f>
+        <f t="shared" ref="K86:K87" si="11">J86-I86</f>
         <v>15069709.751490206</v>
       </c>
       <c r="L86" s="38">
-        <f t="shared" ref="L86:L87" si="11">L85-K86</f>
+        <f t="shared" ref="L86:L87" si="12">L85-K86</f>
         <v>15823195.239064716</v>
       </c>
-      <c r="N86" s="59" t="s">
+      <c r="N86" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="O86" s="60"/>
+      <c r="O86" s="96"/>
       <c r="P86" s="45">
         <f>P84-P85</f>
         <v>1202400</v>
@@ -3546,38 +3496,38 @@
         <v>5</v>
       </c>
       <c r="C87" s="15">
-        <f>F86*$D$79</f>
+        <f t="shared" si="5"/>
         <v>3064673.2642679573</v>
       </c>
       <c r="D87" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11379731.896831045</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8315058.6325630881</v>
       </c>
       <c r="F87" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29242211.762877513</v>
       </c>
       <c r="H87" s="27">
         <v>3</v>
       </c>
       <c r="I87" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>791159.76195323584</v>
       </c>
       <c r="J87" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16614355.001017952</v>
       </c>
       <c r="K87" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15823195.239064716</v>
       </c>
       <c r="L87" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3586,19 +3536,19 @@
         <v>6</v>
       </c>
       <c r="C88" s="15">
-        <f>F87*$D$79</f>
+        <f t="shared" si="5"/>
         <v>2386164.4798508086</v>
       </c>
       <c r="D88" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11379731.896831045</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8993567.4169802368</v>
       </c>
       <c r="F88" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20248644.345897276</v>
       </c>
     </row>
@@ -3607,19 +3557,19 @@
         <v>7</v>
       </c>
       <c r="C89" s="15">
-        <f>F88*$D$79</f>
+        <f t="shared" si="5"/>
         <v>1652289.3786252202</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11379731.896831045</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9727442.5182058252</v>
       </c>
       <c r="F89" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10521201.827691451</v>
       </c>
     </row>
@@ -3628,19 +3578,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="29">
-        <f>F89*$D$79</f>
+        <f t="shared" si="5"/>
         <v>858530.06913962367</v>
       </c>
       <c r="D90" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11379731.896831045</v>
       </c>
       <c r="E90" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10521201.827691421</v>
       </c>
       <c r="F90" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9802322387695313E-8</v>
       </c>
     </row>
@@ -3650,10 +3600,10 @@
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B93" s="63" t="s">
+      <c r="B93" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C93" s="63"/>
+      <c r="C93" s="104"/>
       <c r="D93" s="2">
         <v>0.03</v>
       </c>
@@ -3662,122 +3612,122 @@
       <c r="B94" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="63" t="s">
+      <c r="C94" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="63"/>
-      <c r="E94" s="63" t="s">
+      <c r="D94" s="104"/>
+      <c r="E94" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="F94" s="63"/>
+      <c r="F94" s="104"/>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95" s="106">
+      <c r="C95" s="107">
         <f>$D$80</f>
         <v>11379731.896831045</v>
       </c>
-      <c r="D95" s="63"/>
-      <c r="E95" s="106">
+      <c r="D95" s="104"/>
+      <c r="E95" s="107">
         <f>-PV($D$93,B95,,C95)</f>
         <v>11048283.394981597</v>
       </c>
-      <c r="F95" s="63"/>
+      <c r="F95" s="104"/>
       <c r="G95" s="13"/>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>2</v>
       </c>
-      <c r="C96" s="106">
-        <f t="shared" ref="C96:C97" si="12">$D$80</f>
+      <c r="C96" s="107">
+        <f t="shared" ref="C96:C97" si="13">$D$80</f>
         <v>11379731.896831045</v>
       </c>
-      <c r="D96" s="63"/>
-      <c r="E96" s="106">
-        <f t="shared" ref="E96:E100" si="13">-PV($D$93,B96,,C96)</f>
+      <c r="D96" s="104"/>
+      <c r="E96" s="107">
+        <f t="shared" ref="E96:E100" si="14">-PV($D$93,B96,,C96)</f>
         <v>10726488.732991843</v>
       </c>
-      <c r="F96" s="63"/>
+      <c r="F96" s="104"/>
       <c r="G96" s="13"/>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>3</v>
       </c>
-      <c r="C97" s="106">
-        <f t="shared" si="12"/>
+      <c r="C97" s="107">
+        <f t="shared" si="13"/>
         <v>11379731.896831045</v>
       </c>
-      <c r="D97" s="63"/>
-      <c r="E97" s="106">
-        <f t="shared" si="13"/>
+      <c r="D97" s="104"/>
+      <c r="E97" s="107">
+        <f t="shared" si="14"/>
         <v>10414066.731060041</v>
       </c>
-      <c r="F97" s="63"/>
+      <c r="F97" s="104"/>
       <c r="G97" s="13"/>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>4</v>
       </c>
-      <c r="C98" s="106">
+      <c r="C98" s="107">
         <f>$J$82</f>
         <v>16614355.001017952</v>
       </c>
-      <c r="D98" s="63"/>
-      <c r="E98" s="106">
-        <f t="shared" si="13"/>
+      <c r="D98" s="104"/>
+      <c r="E98" s="107">
+        <f t="shared" si="14"/>
         <v>14761639.227877704</v>
       </c>
-      <c r="F98" s="63"/>
+      <c r="F98" s="104"/>
       <c r="G98" s="13"/>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>5</v>
       </c>
-      <c r="C99" s="106">
-        <f t="shared" ref="C99:C100" si="14">$J$82</f>
+      <c r="C99" s="107">
+        <f t="shared" ref="C99:C100" si="15">$J$82</f>
         <v>16614355.001017952</v>
       </c>
-      <c r="D99" s="63"/>
-      <c r="E99" s="106">
-        <f t="shared" si="13"/>
+      <c r="D99" s="104"/>
+      <c r="E99" s="107">
+        <f t="shared" si="14"/>
         <v>14331688.570755053</v>
       </c>
-      <c r="F99" s="63"/>
+      <c r="F99" s="104"/>
       <c r="G99" s="13"/>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>6</v>
       </c>
-      <c r="C100" s="106">
+      <c r="C100" s="107">
+        <f t="shared" si="15"/>
+        <v>16614355.001017952</v>
+      </c>
+      <c r="D100" s="104"/>
+      <c r="E100" s="107">
         <f t="shared" si="14"/>
-        <v>16614355.001017952</v>
-      </c>
-      <c r="D100" s="63"/>
-      <c r="E100" s="106">
-        <f t="shared" si="13"/>
         <v>13914260.748305876</v>
       </c>
-      <c r="F100" s="63"/>
+      <c r="F100" s="104"/>
       <c r="G100" s="13"/>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B101" s="94" t="s">
+      <c r="B101" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="94"/>
-      <c r="D101" s="94"/>
-      <c r="E101" s="107">
+      <c r="C101" s="109"/>
+      <c r="D101" s="109"/>
+      <c r="E101" s="108">
         <f>SUM(E95:F100)</f>
         <v>75196427.405972108</v>
       </c>
-      <c r="F101" s="94"/>
+      <c r="F101" s="109"/>
       <c r="G101" s="13"/>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
@@ -3786,30 +3736,30 @@
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C104" s="63" t="s">
+      <c r="C104" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="D104" s="63"/>
+      <c r="D104" s="104"/>
       <c r="E104" s="1">
         <f>F85</f>
         <v>45245009.51578369</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C105" s="63" t="s">
+      <c r="C105" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="D105" s="63"/>
+      <c r="D105" s="104"/>
       <c r="E105">
         <v>3</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="63" t="s">
+      <c r="C106" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D106" s="63"/>
+      <c r="D106" s="104"/>
       <c r="E106" s="2">
         <v>0.01</v>
       </c>
@@ -3819,10 +3769,10 @@
       </c>
     </row>
     <row r="107" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="101" t="s">
+      <c r="C107" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="D107" s="102"/>
+      <c r="D107" s="106"/>
       <c r="E107" s="47">
         <f>-FV(E106,E105,,E104)</f>
         <v>46615978.549121447</v>
@@ -3830,98 +3780,98 @@
     </row>
     <row r="108" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A109" s="64" t="s">
+      <c r="A109" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="65"/>
-      <c r="F109" s="65"/>
-      <c r="G109" s="65"/>
-      <c r="H109" s="65"/>
-      <c r="I109" s="65"/>
-      <c r="J109" s="65"/>
-      <c r="K109" s="65"/>
-      <c r="L109" s="65"/>
-      <c r="M109" s="65"/>
-      <c r="N109" s="65"/>
-      <c r="O109" s="65"/>
-      <c r="P109" s="65"/>
-      <c r="Q109" s="65"/>
-      <c r="R109" s="65"/>
-      <c r="S109" s="65"/>
-      <c r="T109" s="65"/>
-      <c r="U109" s="65"/>
-      <c r="V109" s="65"/>
-      <c r="W109" s="66"/>
+      <c r="B109" s="98"/>
+      <c r="C109" s="98"/>
+      <c r="D109" s="98"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="98"/>
+      <c r="G109" s="98"/>
+      <c r="H109" s="98"/>
+      <c r="I109" s="98"/>
+      <c r="J109" s="98"/>
+      <c r="K109" s="98"/>
+      <c r="L109" s="98"/>
+      <c r="M109" s="98"/>
+      <c r="N109" s="98"/>
+      <c r="O109" s="98"/>
+      <c r="P109" s="98"/>
+      <c r="Q109" s="98"/>
+      <c r="R109" s="98"/>
+      <c r="S109" s="98"/>
+      <c r="T109" s="98"/>
+      <c r="U109" s="98"/>
+      <c r="V109" s="98"/>
+      <c r="W109" s="99"/>
     </row>
     <row r="110" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="67"/>
-      <c r="B110" s="68"/>
-      <c r="C110" s="68"/>
-      <c r="D110" s="68"/>
-      <c r="E110" s="68"/>
-      <c r="F110" s="68"/>
-      <c r="G110" s="68"/>
-      <c r="H110" s="68"/>
-      <c r="I110" s="68"/>
-      <c r="J110" s="68"/>
-      <c r="K110" s="68"/>
-      <c r="L110" s="68"/>
-      <c r="M110" s="68"/>
-      <c r="N110" s="68"/>
-      <c r="O110" s="68"/>
-      <c r="P110" s="68"/>
-      <c r="Q110" s="68"/>
-      <c r="R110" s="68"/>
-      <c r="S110" s="68"/>
-      <c r="T110" s="68"/>
-      <c r="U110" s="68"/>
-      <c r="V110" s="68"/>
-      <c r="W110" s="69"/>
+      <c r="A110" s="100"/>
+      <c r="B110" s="101"/>
+      <c r="C110" s="101"/>
+      <c r="D110" s="101"/>
+      <c r="E110" s="101"/>
+      <c r="F110" s="101"/>
+      <c r="G110" s="101"/>
+      <c r="H110" s="101"/>
+      <c r="I110" s="101"/>
+      <c r="J110" s="101"/>
+      <c r="K110" s="101"/>
+      <c r="L110" s="101"/>
+      <c r="M110" s="101"/>
+      <c r="N110" s="101"/>
+      <c r="O110" s="101"/>
+      <c r="P110" s="101"/>
+      <c r="Q110" s="101"/>
+      <c r="R110" s="101"/>
+      <c r="S110" s="101"/>
+      <c r="T110" s="101"/>
+      <c r="U110" s="101"/>
+      <c r="V110" s="101"/>
+      <c r="W110" s="102"/>
     </row>
     <row r="129" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B130" s="82" t="s">
+      <c r="B130" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C130" s="83"/>
-      <c r="D130" s="191">
+      <c r="C130" s="81"/>
+      <c r="D130" s="75">
         <v>35000000</v>
       </c>
-      <c r="K130" s="120" t="s">
+      <c r="K130" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="L130" s="120"/>
-      <c r="M130" s="201">
+      <c r="L130" s="91"/>
+      <c r="M130" s="92">
         <v>1760000</v>
       </c>
-      <c r="O130" s="62" t="s">
+      <c r="O130" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="P130" s="62"/>
-      <c r="Q130" s="62"/>
-      <c r="S130" s="62" t="s">
+      <c r="P130" s="79"/>
+      <c r="Q130" s="79"/>
+      <c r="S130" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="T130" s="62"/>
-      <c r="U130" s="62"/>
+      <c r="T130" s="79"/>
+      <c r="U130" s="79"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B131" s="61" t="s">
+      <c r="B131" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="C131" s="62"/>
+      <c r="C131" s="79"/>
       <c r="D131" s="5">
         <v>0.12</v>
       </c>
-      <c r="K131" s="120"/>
-      <c r="L131" s="120"/>
-      <c r="M131" s="201"/>
+      <c r="K131" s="91"/>
+      <c r="L131" s="91"/>
+      <c r="M131" s="92"/>
       <c r="O131" s="4" t="s">
         <v>56</v>
       </c>
@@ -3940,18 +3890,18 @@
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B132" s="61" t="s">
+      <c r="B132" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="C132" s="62"/>
+      <c r="C132" s="79"/>
       <c r="D132" s="6">
         <v>4</v>
       </c>
-      <c r="K132" s="120" t="s">
+      <c r="K132" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="L132" s="120"/>
-      <c r="M132" s="201">
+      <c r="L132" s="91"/>
+      <c r="M132" s="92">
         <f>1.2*M130</f>
         <v>2112000</v>
       </c>
@@ -3973,16 +3923,16 @@
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B133" s="61" t="s">
+      <c r="B133" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="C133" s="62"/>
+      <c r="C133" s="79"/>
       <c r="D133" s="6">
         <v>5</v>
       </c>
-      <c r="K133" s="120"/>
-      <c r="L133" s="120"/>
-      <c r="M133" s="119"/>
+      <c r="K133" s="91"/>
+      <c r="L133" s="91"/>
+      <c r="M133" s="93"/>
       <c r="O133" s="4" t="s">
         <v>50</v>
       </c>
@@ -4001,10 +3951,10 @@
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B134" s="192" t="s">
+      <c r="B134" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="C134" s="190"/>
+      <c r="C134" s="91"/>
       <c r="D134" s="6">
         <f>POWER(1+(D131/D132),2) -1</f>
         <v>6.0899999999999954E-2</v>
@@ -4027,10 +3977,10 @@
       </c>
     </row>
     <row r="135" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="59" t="s">
+      <c r="B135" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C135" s="60"/>
+      <c r="C135" s="96"/>
       <c r="D135" s="51">
         <f>-PMT(D134,D133,D130)</f>
         <v>8329227.4942965871</v>
@@ -4071,13 +4021,13 @@
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B137" s="185" t="s">
+      <c r="B137" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="C137" s="186"/>
-      <c r="D137" s="186"/>
-      <c r="E137" s="186"/>
-      <c r="F137" s="187" t="s">
+      <c r="C137" s="90"/>
+      <c r="D137" s="90"/>
+      <c r="E137" s="90"/>
+      <c r="F137" s="72" t="s">
         <v>17</v>
       </c>
       <c r="O137" s="4" t="s">
@@ -4098,16 +4048,16 @@
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B138" s="188" t="s">
+      <c r="B138" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C138" s="189" t="s">
+      <c r="C138" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D138" s="189" t="s">
+      <c r="D138" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="E138" s="189" t="s">
+      <c r="E138" s="74" t="s">
         <v>29</v>
       </c>
       <c r="F138" s="38">
@@ -4140,57 +4090,57 @@
       <c r="B140" s="41">
         <v>2</v>
       </c>
-      <c r="C140" s="193">
-        <f t="shared" ref="C140:C143" si="15">F139*$D$134</f>
+      <c r="C140" s="76">
+        <f t="shared" ref="C140:C143" si="16">F139*$D$134</f>
         <v>1754058.3955973366</v>
       </c>
       <c r="D140" s="42">
-        <f t="shared" ref="D140:D143" si="16">$D$135</f>
+        <f t="shared" ref="D140:D143" si="17">$D$135</f>
         <v>8329227.4942965871</v>
       </c>
       <c r="E140" s="43">
-        <f t="shared" ref="E140:E143" si="17">D140-C140</f>
+        <f t="shared" ref="E140:E143" si="18">D140-C140</f>
         <v>6575169.0986992503</v>
       </c>
       <c r="F140" s="44">
-        <f t="shared" ref="F140:F143" si="18">F139-E140</f>
+        <f t="shared" ref="F140:F143" si="19">F139-E140</f>
         <v>22227103.407004163</v>
       </c>
       <c r="K140" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="L140" s="82" t="s">
+      <c r="L140" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="M140" s="83"/>
-      <c r="N140" s="83"/>
-      <c r="O140" s="114"/>
+      <c r="M140" s="81"/>
+      <c r="N140" s="81"/>
+      <c r="O140" s="82"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B141" s="24">
         <v>3</v>
       </c>
       <c r="C141" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1353630.5974865525</v>
       </c>
       <c r="D141" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8329227.4942965871</v>
       </c>
       <c r="E141" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6975596.8968100343</v>
       </c>
       <c r="F141" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15251506.510194128</v>
       </c>
-      <c r="L141" s="53" t="s">
+      <c r="L141" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="M141" s="54"/>
-      <c r="N141" s="55"/>
+      <c r="M141" s="84"/>
+      <c r="N141" s="85"/>
       <c r="O141" s="49">
         <v>1.6E-2</v>
       </c>
@@ -4200,26 +4150,26 @@
         <v>4</v>
       </c>
       <c r="C142" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>928816.74647082167</v>
       </c>
       <c r="D142" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8329227.4942965871</v>
       </c>
       <c r="E142" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7400410.7478257651</v>
       </c>
       <c r="F142" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7851095.7623683633</v>
       </c>
-      <c r="L142" s="53" t="s">
+      <c r="L142" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="M142" s="54"/>
-      <c r="N142" s="55"/>
+      <c r="M142" s="84"/>
+      <c r="N142" s="85"/>
       <c r="O142" s="6">
         <f>POWER(1+(O141/12),1) -1</f>
         <v>1.3333333333334085E-3</v>
@@ -4230,80 +4180,80 @@
         <v>5</v>
       </c>
       <c r="C143" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>478131.73192823294</v>
       </c>
       <c r="D143" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8329227.4942965871</v>
       </c>
       <c r="E143" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7851095.762368354</v>
       </c>
       <c r="F143" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.3132257461547852E-9</v>
       </c>
-      <c r="L143" s="53" t="s">
+      <c r="L143" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="M143" s="54"/>
-      <c r="N143" s="55"/>
+      <c r="M143" s="84"/>
+      <c r="N143" s="85"/>
       <c r="O143" s="6">
         <f>12*(85-65)</f>
         <v>240</v>
       </c>
     </row>
     <row r="144" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L144" s="53" t="s">
+      <c r="L144" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="M144" s="54"/>
-      <c r="N144" s="55"/>
-      <c r="O144" s="206">
+      <c r="M144" s="84"/>
+      <c r="N144" s="85"/>
+      <c r="O144" s="50">
         <f>-FV(O142,Q131,Q133)-FV(O142,U131,U133)</f>
         <v>142262473.32439083</v>
       </c>
     </row>
     <row r="145" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="185" t="s">
+      <c r="B145" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="C145" s="186"/>
-      <c r="D145" s="186"/>
-      <c r="E145" s="186"/>
-      <c r="F145" s="187" t="s">
+      <c r="C145" s="90"/>
+      <c r="D145" s="90"/>
+      <c r="E145" s="90"/>
+      <c r="F145" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="L145" s="56" t="s">
+      <c r="L145" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="M145" s="57"/>
-      <c r="N145" s="58"/>
+      <c r="M145" s="87"/>
+      <c r="N145" s="88"/>
       <c r="O145" s="51">
         <f>PMT(O142,O143,-O144)</f>
         <v>693043.29776588443</v>
       </c>
     </row>
     <row r="146" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B146" s="188" t="s">
+      <c r="B146" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C146" s="189" t="s">
+      <c r="C146" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D146" s="189" t="s">
+      <c r="D146" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="E146" s="189" t="s">
+      <c r="E146" s="74" t="s">
         <v>29</v>
       </c>
       <c r="F146" s="38">
         <f>F140</f>
         <v>22227103.407004163</v>
       </c>
-      <c r="G146" s="167" t="s">
+      <c r="G146" s="70" t="s">
         <v>109</v>
       </c>
       <c r="H146" s="2">
@@ -4342,60 +4292,51 @@
       </c>
     </row>
     <row r="148" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B148" s="194">
+      <c r="B148" s="24">
         <v>2</v>
       </c>
       <c r="C148" s="3">
-        <f t="shared" ref="C148:C149" si="19">F147*$H$146</f>
+        <f t="shared" ref="C148:C149" si="20">F147*$H$146</f>
         <v>89174.075162238732</v>
       </c>
       <c r="D148" s="15">
-        <f t="shared" ref="D148:D149" si="20">-PMT($H$146,$H$147,$F$146)</f>
+        <f t="shared" ref="D148:D149" si="21">-PMT($H$146,$H$147,$F$146)</f>
         <v>7498120.1670730654</v>
       </c>
-      <c r="E148" s="195">
-        <f t="shared" ref="E148:E151" si="21">D148-C148</f>
+      <c r="E148" s="4">
+        <f t="shared" ref="E148:E149" si="22">D148-C148</f>
         <v>7408946.091910827</v>
       </c>
-      <c r="F148" s="196">
-        <f t="shared" ref="F148:F151" si="22">F147-E148</f>
+      <c r="F148" s="38">
+        <f t="shared" ref="F148:F149" si="23">F147-E148</f>
         <v>7453399.7684622956</v>
       </c>
       <c r="L148" t="s">
         <v>132</v>
       </c>
-      <c r="N148" s="198">
+      <c r="N148" s="1">
         <f>1.25*U137</f>
         <v>1858560</v>
       </c>
-      <c r="O148" s="197"/>
-      <c r="P148" s="197"/>
-      <c r="Q148" s="197"/>
-      <c r="R148" s="197"/>
-      <c r="S148" s="197"/>
-      <c r="T148" s="197"/>
-      <c r="U148" s="197"/>
-      <c r="V148" s="197"/>
-      <c r="W148" s="197"/>
     </row>
     <row r="149" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="27">
         <v>3</v>
       </c>
       <c r="C149" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>44720.398610773773</v>
       </c>
       <c r="D149" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7498120.1670730654</v>
       </c>
       <c r="E149" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7453399.7684622919</v>
       </c>
       <c r="F149" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L149" t="s">
@@ -4405,63 +4346,37 @@
         <f>-PV(O142,O143,N148)</f>
         <v>381510568.34995139</v>
       </c>
-      <c r="O149" s="207"/>
-      <c r="P149" s="205"/>
-      <c r="Q149" s="205"/>
-      <c r="R149" s="205"/>
-      <c r="S149" s="205"/>
-      <c r="T149" s="205"/>
-      <c r="U149" s="205"/>
-      <c r="V149" s="205"/>
-      <c r="W149" s="204"/>
+      <c r="O149" s="13"/>
+      <c r="W149" s="78"/>
     </row>
     <row r="150" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="197"/>
-      <c r="C150" s="198"/>
-      <c r="D150" s="199"/>
-      <c r="E150" s="197"/>
-      <c r="F150" s="198"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="13"/>
+      <c r="F150" s="1"/>
       <c r="L150" t="s">
         <v>133</v>
       </c>
-      <c r="N150" s="207">
+      <c r="N150" s="13">
         <f>-FV(O142,O143,U133)</f>
         <v>77597712.722394988</v>
       </c>
-      <c r="O150" s="205"/>
-      <c r="P150" s="205"/>
-      <c r="Q150" s="205"/>
-      <c r="R150" s="205"/>
-      <c r="S150" s="205"/>
-      <c r="T150" s="205"/>
-      <c r="U150" s="205"/>
-      <c r="V150" s="205"/>
-      <c r="W150" s="199"/>
+      <c r="W150" s="13"/>
     </row>
     <row r="151" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B151" s="82" t="s">
+      <c r="B151" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="C151" s="114"/>
-      <c r="D151" s="199"/>
-      <c r="E151" s="197"/>
-      <c r="F151" s="198"/>
+      <c r="C151" s="82"/>
+      <c r="D151" s="13"/>
+      <c r="F151" s="1"/>
       <c r="L151" t="s">
         <v>135</v>
       </c>
-      <c r="N151" s="207">
+      <c r="N151" s="13">
         <f>N149-N150</f>
         <v>303912855.62755638</v>
       </c>
-      <c r="O151" s="205"/>
-      <c r="P151" s="205"/>
-      <c r="Q151" s="205"/>
-      <c r="R151" s="205"/>
-      <c r="S151" s="205"/>
-      <c r="T151" s="205"/>
-      <c r="U151" s="205"/>
-      <c r="V151" s="205"/>
-      <c r="W151" s="199"/>
+      <c r="W151" s="13"/>
     </row>
     <row r="152" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B152" s="24" t="s">
@@ -4473,19 +4388,10 @@
       <c r="L152" t="s">
         <v>136</v>
       </c>
-      <c r="N152" s="207">
+      <c r="N152" s="13">
         <f>-PMT(O142,Q131,N151)</f>
         <v>1480536.3830368416</v>
       </c>
-      <c r="O152" s="205"/>
-      <c r="P152" s="205"/>
-      <c r="Q152" s="205"/>
-      <c r="R152" s="205"/>
-      <c r="S152" s="205"/>
-      <c r="T152" s="205"/>
-      <c r="U152" s="205"/>
-      <c r="V152" s="205"/>
-      <c r="W152" s="197"/>
     </row>
     <row r="153" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B153" s="24" t="s">
@@ -4494,16 +4400,6 @@
       <c r="C153" s="49">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N153" s="205"/>
-      <c r="O153" s="205"/>
-      <c r="P153" s="205"/>
-      <c r="Q153" s="205"/>
-      <c r="R153" s="205"/>
-      <c r="S153" s="205"/>
-      <c r="T153" s="205"/>
-      <c r="U153" s="205"/>
-      <c r="V153" s="205"/>
-      <c r="W153" s="197"/>
     </row>
     <row r="154" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B154" s="24" t="s">
@@ -4512,16 +4408,7 @@
       <c r="C154" s="38">
         <v>570000</v>
       </c>
-      <c r="N154" s="205"/>
-      <c r="O154" s="205"/>
-      <c r="P154" s="205"/>
-      <c r="Q154" s="205"/>
-      <c r="R154" s="205"/>
-      <c r="S154" s="205"/>
-      <c r="T154" s="205"/>
-      <c r="U154" s="205"/>
-      <c r="V154" s="205"/>
-      <c r="W154" s="198"/>
+      <c r="W154" s="1"/>
     </row>
     <row r="155" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B155" s="24" t="s">
@@ -4531,97 +4418,51 @@
         <f>-FV(C153,C152*12,,C154)</f>
         <v>1113165.0257064542</v>
       </c>
-      <c r="N155" s="205"/>
-      <c r="O155" s="205"/>
-      <c r="P155" s="205"/>
-      <c r="Q155" s="205"/>
-      <c r="R155" s="205"/>
-      <c r="S155" s="205"/>
-      <c r="T155" s="205"/>
-      <c r="U155" s="205"/>
-      <c r="V155" s="205"/>
-      <c r="W155" s="199"/>
+      <c r="W155" s="13"/>
     </row>
     <row r="156" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="200">
+      <c r="B156" s="77">
         <v>0.8</v>
       </c>
       <c r="C156" s="51">
         <f>0.8*C155</f>
         <v>890532.02056516334</v>
       </c>
-      <c r="N156" s="205"/>
-      <c r="O156" s="205"/>
-      <c r="P156" s="205"/>
-      <c r="Q156" s="205"/>
-      <c r="R156" s="205"/>
-      <c r="S156" s="205"/>
-      <c r="T156" s="205"/>
-      <c r="U156" s="205"/>
-      <c r="V156" s="205"/>
-      <c r="W156" s="199"/>
+      <c r="W156" s="13"/>
     </row>
     <row r="157" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N157" s="205"/>
-      <c r="O157" s="205"/>
-      <c r="P157" s="205"/>
-      <c r="Q157" s="205"/>
-      <c r="R157" s="205"/>
-      <c r="S157" s="205"/>
-      <c r="T157" s="205"/>
-      <c r="U157" s="205"/>
-      <c r="V157" s="205"/>
-      <c r="W157" s="199"/>
+      <c r="W157" s="13"/>
     </row>
     <row r="158" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B158" s="185" t="s">
+      <c r="B158" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="C158" s="186"/>
-      <c r="D158" s="186"/>
-      <c r="E158" s="186"/>
-      <c r="F158" s="187" t="s">
+      <c r="C158" s="90"/>
+      <c r="D158" s="90"/>
+      <c r="E158" s="90"/>
+      <c r="F158" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="N158" s="205"/>
-      <c r="O158" s="205"/>
-      <c r="P158" s="205"/>
-      <c r="Q158" s="205"/>
-      <c r="R158" s="205"/>
-      <c r="S158" s="205"/>
-      <c r="T158" s="205"/>
-      <c r="U158" s="205"/>
-      <c r="V158" s="205"/>
-      <c r="W158" s="199"/>
+      <c r="W158" s="13"/>
     </row>
     <row r="159" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B159" s="188" t="s">
+      <c r="B159" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C159" s="189" t="s">
+      <c r="C159" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D159" s="189" t="s">
+      <c r="D159" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="E159" s="189" t="s">
+      <c r="E159" s="74" t="s">
         <v>29</v>
       </c>
       <c r="F159" s="38">
         <f>F140-C156</f>
         <v>21336571.386438999</v>
       </c>
-      <c r="G159" s="167"/>
-      <c r="N159" s="205"/>
-      <c r="O159" s="205"/>
-      <c r="P159" s="205"/>
-      <c r="Q159" s="205"/>
-      <c r="R159" s="205"/>
-      <c r="S159" s="205"/>
-      <c r="T159" s="205"/>
-      <c r="U159" s="205"/>
-      <c r="V159" s="205"/>
-      <c r="W159" s="197"/>
+      <c r="G159" s="70"/>
     </row>
     <row r="160" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B160" s="24">
@@ -4643,41 +4484,31 @@
         <f>F159-E160</f>
         <v>14266883.885548025</v>
       </c>
-      <c r="G160" s="167" t="s">
+      <c r="G160" s="70" t="s">
         <v>109</v>
       </c>
       <c r="H160" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N160" s="205"/>
-      <c r="O160" s="205"/>
-      <c r="P160" s="205"/>
-      <c r="Q160" s="205"/>
-      <c r="R160" s="205"/>
-      <c r="S160" s="205"/>
-      <c r="T160" s="205"/>
-      <c r="U160" s="205"/>
-      <c r="V160" s="205"/>
-      <c r="W160" s="197"/>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B161" s="194">
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="24">
         <v>2</v>
       </c>
       <c r="C161" s="3">
-        <f t="shared" ref="C161:C162" si="23">F160*$H$146</f>
+        <f t="shared" ref="C161:C162" si="24">F160*$H$146</f>
         <v>85601.303313288154</v>
       </c>
       <c r="D161" s="15">
-        <f t="shared" ref="D161:D162" si="24">-PMT($H$160,$H$161,$F$159)</f>
+        <f t="shared" ref="D161:D162" si="25">-PMT($H$160,$H$161,$F$159)</f>
         <v>7197706.9292096086</v>
       </c>
-      <c r="E161" s="195">
-        <f t="shared" ref="E161:E162" si="25">D161-C161</f>
+      <c r="E161" s="4">
+        <f t="shared" ref="E161:E162" si="26">D161-C161</f>
         <v>7112105.6258963207</v>
       </c>
-      <c r="F161" s="196">
-        <f t="shared" ref="F161:F162" si="26">F160-E161</f>
+      <c r="F161" s="38">
+        <f t="shared" ref="F161:F162" si="27">F160-E161</f>
         <v>7154778.2596517047</v>
       </c>
       <c r="G161" t="s">
@@ -4686,53 +4517,34 @@
       <c r="H161">
         <v>3</v>
       </c>
-      <c r="N161" s="205"/>
-      <c r="O161" s="205"/>
-      <c r="P161" s="205"/>
-      <c r="Q161" s="205"/>
-      <c r="R161" s="205"/>
-      <c r="S161" s="205"/>
-      <c r="T161" s="205"/>
-      <c r="U161" s="205"/>
-      <c r="V161" s="205"/>
-      <c r="W161" s="197"/>
-    </row>
-    <row r="162" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B162" s="27">
         <v>3</v>
       </c>
       <c r="C162" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>42928.669557910231</v>
       </c>
       <c r="D162" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7197706.9292096086</v>
       </c>
       <c r="E162" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7154778.2596516982</v>
       </c>
       <c r="F162" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N162" s="205"/>
-      <c r="O162" s="205"/>
-      <c r="P162" s="205"/>
-      <c r="Q162" s="205"/>
-      <c r="R162" s="205"/>
-      <c r="S162" s="205"/>
-      <c r="T162" s="205"/>
-      <c r="U162" s="205"/>
-      <c r="V162" s="205"/>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>117</v>
       </c>
@@ -4740,7 +4552,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>14</v>
       </c>
@@ -4751,7 +4563,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C167">
         <v>1</v>
       </c>
@@ -4764,7 +4576,7 @@
         <v>8086628.6352394046</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C168">
         <v>2</v>
       </c>
@@ -4773,11 +4585,11 @@
         <v>8329227.4942965871</v>
       </c>
       <c r="E168" s="13">
-        <f t="shared" ref="E168:E171" si="27">-PV($C$165,C168,,D168)</f>
+        <f t="shared" ref="E168:E171" si="28">-PV($C$165,C168,,D168)</f>
         <v>7851095.7623683549</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C169">
         <v>3</v>
       </c>
@@ -4786,37 +4598,37 @@
         <v>7197706.9292096086</v>
       </c>
       <c r="E169" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6586921.4627346154</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C170">
         <v>4</v>
       </c>
       <c r="D170" s="13">
-        <f t="shared" ref="D170:D171" si="28">$D$160</f>
+        <f t="shared" ref="D170:D171" si="29">$D$160</f>
         <v>7197706.9292096086</v>
       </c>
       <c r="E170" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6395069.3812957443</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C171">
         <v>5</v>
       </c>
       <c r="D171" s="13">
+        <f t="shared" si="29"/>
+        <v>7197706.9292096086</v>
+      </c>
+      <c r="E171" s="13">
         <f t="shared" si="28"/>
-        <v>7197706.9292096086</v>
-      </c>
-      <c r="E171" s="13">
-        <f t="shared" si="27"/>
         <v>6208805.2245589755</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
         <v>118</v>
       </c>
@@ -4825,12 +4637,12 @@
         <v>35128520.466197096</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>40</v>
       </c>
@@ -4875,29 +4687,67 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="O130:Q130"/>
-    <mergeCell ref="S130:U130"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="L141:N141"/>
-    <mergeCell ref="L144:N144"/>
-    <mergeCell ref="L145:N145"/>
-    <mergeCell ref="L142:N142"/>
-    <mergeCell ref="L143:N143"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="K130:L131"/>
-    <mergeCell ref="M130:M131"/>
-    <mergeCell ref="K132:L133"/>
-    <mergeCell ref="M132:M133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="A109:W110"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="S83:U83"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A4:W5"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="A51:W52"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
     <mergeCell ref="C106:D106"/>
     <mergeCell ref="C107:D107"/>
     <mergeCell ref="N74:O74"/>
@@ -4914,67 +4764,29 @@
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="H82:I82"/>
     <mergeCell ref="H79:I79"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="A51:W52"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A4:W5"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="S82:U82"/>
-    <mergeCell ref="S83:U83"/>
-    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="A109:W110"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="L145:N145"/>
+    <mergeCell ref="L142:N142"/>
+    <mergeCell ref="L143:N143"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="K130:L131"/>
+    <mergeCell ref="M130:M131"/>
+    <mergeCell ref="K132:L133"/>
+    <mergeCell ref="M132:M133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="O130:Q130"/>
+    <mergeCell ref="S130:U130"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="L141:N141"/>
+    <mergeCell ref="L144:N144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4983,11 +4795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADE5909-3DB5-49AF-BAAF-5BDDB8D47754}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC84F07-1EA5-4D61-B81C-BAFB8E67E7B0}">
   <dimension ref="A3:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4997,125 +4809,125 @@
   <sheetData>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="110"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="190"/>
+      <c r="K4" s="190"/>
+      <c r="L4" s="190"/>
+      <c r="M4" s="190"/>
+      <c r="N4" s="190"/>
+      <c r="O4" s="190"/>
+      <c r="P4" s="190"/>
+      <c r="Q4" s="190"/>
+      <c r="R4" s="190"/>
+      <c r="S4" s="190"/>
+      <c r="T4" s="190"/>
+      <c r="U4" s="190"/>
+      <c r="V4" s="190"/>
+      <c r="W4" s="191"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="113"/>
+      <c r="A5" s="192"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
+      <c r="K5" s="193"/>
+      <c r="L5" s="193"/>
+      <c r="M5" s="193"/>
+      <c r="N5" s="193"/>
+      <c r="O5" s="193"/>
+      <c r="P5" s="193"/>
+      <c r="Q5" s="193"/>
+      <c r="R5" s="193"/>
+      <c r="S5" s="193"/>
+      <c r="T5" s="193"/>
+      <c r="U5" s="193"/>
+      <c r="V5" s="193"/>
+      <c r="W5" s="194"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="140"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="148" t="s">
+      <c r="B7" s="154"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="150"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="145"/>
       <c r="H7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="143"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152" t="s">
+      <c r="A8" s="156"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="153" t="s">
+      <c r="E8" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="153" t="s">
+      <c r="F8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="154" t="s">
+      <c r="G8" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="168" t="s">
+      <c r="H8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="152" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="123">
+      <c r="C9" s="58">
         <f>D9*POWER(1+E9,F9)</f>
         <v>1628.8946267774415</v>
       </c>
-      <c r="D9" s="118">
+      <c r="D9" s="56">
         <v>1000</v>
       </c>
-      <c r="E9" s="115">
+      <c r="E9" s="53">
         <v>0.05</v>
       </c>
-      <c r="F9" s="116">
+      <c r="F9" s="54">
         <v>10</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="55">
         <f>C9</f>
         <v>1628.8946267774415</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="121"/>
-      <c r="B10" s="124" t="s">
+      <c r="A10" s="152"/>
+      <c r="B10" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="125">
+      <c r="C10" s="58">
         <f>-FV(E9,F9,,D9)</f>
         <v>1628.8946267774415</v>
       </c>
@@ -5124,270 +4936,270 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="187" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="125">
+      <c r="C11" s="58">
         <f>-PV(E9,F9,,G9)</f>
         <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="127"/>
-      <c r="B12" s="128" t="s">
+      <c r="A12" s="188"/>
+      <c r="B12" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="129">
+      <c r="C12" s="60">
         <f>G9/POWER(1+E9,F9)</f>
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="141" t="s">
+      <c r="B15" s="154"/>
+      <c r="C15" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="185"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="143"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="145" t="s">
+      <c r="A16" s="156"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="183" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145" t="s">
+      <c r="D16" s="183"/>
+      <c r="E16" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145" t="s">
+      <c r="F16" s="183"/>
+      <c r="G16" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="146"/>
+      <c r="H16" s="186"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="133">
+      <c r="A17" s="177">
         <f>POWER(1+(C17/F17),H17) -1</f>
-        <v>1.6000000000000014E-2</v>
-      </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="202">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D17" s="202"/>
-      <c r="E17" s="124" t="s">
+        <v>0.17999999999999994</v>
+      </c>
+      <c r="B17" s="178"/>
+      <c r="C17" s="181">
+        <v>0.18</v>
+      </c>
+      <c r="D17" s="181"/>
+      <c r="E17" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="124">
+      <c r="F17" s="57">
         <v>1</v>
       </c>
-      <c r="G17" s="131" t="s">
+      <c r="G17" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="134">
+      <c r="H17" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="133">
+      <c r="A18" s="177">
         <f>POWER(1+(C18/F18),H18) -1</f>
         <v>0</v>
       </c>
-      <c r="B18" s="130"/>
-      <c r="C18" s="202">
+      <c r="B18" s="178"/>
+      <c r="C18" s="181">
         <f>C17</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="124" t="s">
+        <v>0.18</v>
+      </c>
+      <c r="D18" s="181"/>
+      <c r="E18" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="124">
+      <c r="F18" s="57">
         <v>1</v>
       </c>
-      <c r="G18" s="131" t="s">
+      <c r="G18" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="134">
+      <c r="H18" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="133">
+      <c r="A19" s="177">
         <f>POWER(1+(C19/F19),H19) -1</f>
         <v>0</v>
       </c>
-      <c r="B19" s="130"/>
-      <c r="C19" s="202">
-        <f t="shared" ref="C19:C32" si="0">C18</f>
-        <v>1.6E-2</v>
-      </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="124" t="s">
+      <c r="B19" s="178"/>
+      <c r="C19" s="181">
+        <f>C18</f>
+        <v>0.18</v>
+      </c>
+      <c r="D19" s="181"/>
+      <c r="E19" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="124">
+      <c r="F19" s="57">
         <v>1</v>
       </c>
-      <c r="G19" s="131" t="s">
+      <c r="G19" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="134">
+      <c r="H19" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="133">
+      <c r="A20" s="177">
         <f>POWER(1+(C20/F20),H20) -1</f>
         <v>0</v>
       </c>
-      <c r="B20" s="130"/>
-      <c r="C20" s="202">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="D20" s="202"/>
-      <c r="E20" s="124" t="s">
+      <c r="B20" s="178"/>
+      <c r="C20" s="181">
+        <f>C19</f>
+        <v>0.18</v>
+      </c>
+      <c r="D20" s="181"/>
+      <c r="E20" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="124">
+      <c r="F20" s="57">
         <v>1</v>
       </c>
-      <c r="G20" s="131" t="s">
+      <c r="G20" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="134">
+      <c r="H20" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="133">
+      <c r="A21" s="177">
         <f>POWER(1+(C21/F21),H21) -1</f>
-        <v>1.6064000000000078E-2</v>
-      </c>
-      <c r="B21" s="130"/>
-      <c r="C21" s="202">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="D21" s="202"/>
-      <c r="E21" s="124" t="s">
+        <v>0.18810000000000016</v>
+      </c>
+      <c r="B21" s="178"/>
+      <c r="C21" s="181">
+        <f>C20</f>
+        <v>0.18</v>
+      </c>
+      <c r="D21" s="181"/>
+      <c r="E21" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="124">
+      <c r="F21" s="57">
         <v>2</v>
       </c>
-      <c r="G21" s="131" t="s">
+      <c r="G21" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="134">
+      <c r="H21" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="133">
+      <c r="A22" s="177">
         <f>POWER(1+(C22/F22),H22) -1</f>
-        <v>8.0000000000000071E-3</v>
-      </c>
-      <c r="B22" s="130"/>
-      <c r="C22" s="202">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="D22" s="202"/>
-      <c r="E22" s="124" t="s">
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="B22" s="178"/>
+      <c r="C22" s="181">
+        <f>C21</f>
+        <v>0.18</v>
+      </c>
+      <c r="D22" s="181"/>
+      <c r="E22" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="124">
+      <c r="F22" s="57">
         <v>2</v>
       </c>
-      <c r="G22" s="131" t="s">
+      <c r="G22" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="134">
+      <c r="H22" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="133">
+      <c r="A23" s="177">
         <f>POWER(1+(C23/F23),H23) -1</f>
         <v>0</v>
       </c>
-      <c r="B23" s="130"/>
-      <c r="C23" s="202">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="D23" s="202"/>
-      <c r="E23" s="124" t="s">
+      <c r="B23" s="178"/>
+      <c r="C23" s="181">
+        <f>C22</f>
+        <v>0.18</v>
+      </c>
+      <c r="D23" s="181"/>
+      <c r="E23" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="124">
+      <c r="F23" s="57">
         <v>2</v>
       </c>
-      <c r="G23" s="131" t="s">
+      <c r="G23" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="134">
+      <c r="H23" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="133">
+      <c r="A24" s="177">
         <f>POWER(1+(C24/F24),H24) -1</f>
         <v>0</v>
       </c>
-      <c r="B24" s="130"/>
-      <c r="C24" s="202">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="D24" s="202"/>
-      <c r="E24" s="124" t="s">
+      <c r="B24" s="178"/>
+      <c r="C24" s="181">
+        <f>C23</f>
+        <v>0.18</v>
+      </c>
+      <c r="D24" s="181"/>
+      <c r="E24" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="124">
+      <c r="F24" s="57">
         <v>2</v>
       </c>
-      <c r="G24" s="131" t="s">
+      <c r="G24" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="134">
+      <c r="H24" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="133">
+      <c r="A25" s="177">
         <f>POWER(1+(C25/F25),H25) -1</f>
-        <v>1.6096256256000085E-2</v>
-      </c>
-      <c r="B25" s="130"/>
-      <c r="C25" s="202">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="D25" s="202"/>
-      <c r="E25" s="124" t="s">
+        <v>0.19251860062499948</v>
+      </c>
+      <c r="B25" s="178"/>
+      <c r="C25" s="181">
+        <f>C24</f>
+        <v>0.18</v>
+      </c>
+      <c r="D25" s="181"/>
+      <c r="E25" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="124">
+      <c r="F25" s="57">
         <v>4</v>
       </c>
-      <c r="G25" s="131" t="s">
+      <c r="G25" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="134">
+      <c r="H25" s="62">
         <v>4</v>
       </c>
       <c r="L25" t="s">
@@ -5395,342 +5207,342 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="133">
+      <c r="A26" s="177">
         <f>POWER(1+(C26/F26),H26) -1</f>
-        <v>8.0160000000000231E-3</v>
-      </c>
-      <c r="B26" s="130"/>
-      <c r="C26" s="202">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="D26" s="202"/>
-      <c r="E26" s="124" t="s">
+        <v>9.2024999999999801E-2</v>
+      </c>
+      <c r="B26" s="178"/>
+      <c r="C26" s="181">
+        <f>C25</f>
+        <v>0.18</v>
+      </c>
+      <c r="D26" s="181"/>
+      <c r="E26" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="124">
+      <c r="F26" s="57">
         <v>4</v>
       </c>
-      <c r="G26" s="131" t="s">
+      <c r="G26" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="134">
+      <c r="H26" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="133">
+      <c r="A27" s="177">
         <f>POWER(1+(C27/F27),H27) -1</f>
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="B27" s="130"/>
-      <c r="C27" s="202">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="D27" s="202"/>
-      <c r="E27" s="124" t="s">
+        <v>4.4999999999999929E-2</v>
+      </c>
+      <c r="B27" s="178"/>
+      <c r="C27" s="181">
+        <f>C26</f>
+        <v>0.18</v>
+      </c>
+      <c r="D27" s="181"/>
+      <c r="E27" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="124">
+      <c r="F27" s="57">
         <v>4</v>
       </c>
-      <c r="G27" s="131" t="s">
+      <c r="G27" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="134">
+      <c r="H27" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="133">
+      <c r="A28" s="177">
         <f>POWER(1+(C28/F28),H28) -1</f>
         <v>0</v>
       </c>
-      <c r="B28" s="130"/>
-      <c r="C28" s="202">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="D28" s="202"/>
-      <c r="E28" s="124" t="s">
+      <c r="B28" s="178"/>
+      <c r="C28" s="181">
+        <f>C27</f>
+        <v>0.18</v>
+      </c>
+      <c r="D28" s="181"/>
+      <c r="E28" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="124">
+      <c r="F28" s="57">
         <v>4</v>
       </c>
-      <c r="G28" s="131" t="s">
+      <c r="G28" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="134">
+      <c r="H28" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="133">
+      <c r="A29" s="177">
         <f>POWER(1+(C29/F29),H29) -1</f>
-        <v>1.6117856382603435E-2</v>
-      </c>
-      <c r="B29" s="130"/>
-      <c r="C29" s="202">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="D29" s="202"/>
-      <c r="E29" s="124" t="s">
+        <v>0.19561817146153326</v>
+      </c>
+      <c r="B29" s="178"/>
+      <c r="C29" s="181">
+        <f>C28</f>
+        <v>0.18</v>
+      </c>
+      <c r="D29" s="181"/>
+      <c r="E29" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="124">
+      <c r="F29" s="57">
         <v>12</v>
       </c>
-      <c r="G29" s="131" t="s">
+      <c r="G29" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="134">
+      <c r="H29" s="62">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="133">
+      <c r="A30" s="177">
         <f>POWER(1+(C30/F30),H30) -1</f>
-        <v>8.0267141215075721E-3</v>
-      </c>
-      <c r="B30" s="130"/>
-      <c r="C30" s="202">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="D30" s="202"/>
-      <c r="E30" s="124" t="s">
+        <v>9.3443263942639687E-2</v>
+      </c>
+      <c r="B30" s="178"/>
+      <c r="C30" s="181">
+        <f>C29</f>
+        <v>0.18</v>
+      </c>
+      <c r="D30" s="181"/>
+      <c r="E30" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="124">
+      <c r="F30" s="57">
         <v>12</v>
       </c>
-      <c r="G30" s="131" t="s">
+      <c r="G30" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="134">
+      <c r="H30" s="62">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="133">
+      <c r="A31" s="177">
         <f>POWER(1+(C31/F31),H31) -1</f>
-        <v>4.0053357037039827E-3</v>
-      </c>
-      <c r="B31" s="130"/>
-      <c r="C31" s="202">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="D31" s="202"/>
-      <c r="E31" s="124" t="s">
+        <v>4.5678374999999605E-2</v>
+      </c>
+      <c r="B31" s="178"/>
+      <c r="C31" s="181">
+        <f>C30</f>
+        <v>0.18</v>
+      </c>
+      <c r="D31" s="181"/>
+      <c r="E31" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="124">
+      <c r="F31" s="57">
         <v>12</v>
       </c>
-      <c r="G31" s="131" t="s">
+      <c r="G31" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="134">
+      <c r="H31" s="62">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="135">
+      <c r="A32" s="179">
         <f>POWER(1+(C32/F32),H32) -1</f>
-        <v>1.3333333333334085E-3</v>
-      </c>
-      <c r="B32" s="136"/>
-      <c r="C32" s="203">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="D32" s="203"/>
-      <c r="E32" s="128" t="s">
+        <v>1.4999999999999902E-2</v>
+      </c>
+      <c r="B32" s="180"/>
+      <c r="C32" s="182">
+        <f>C31</f>
+        <v>0.18</v>
+      </c>
+      <c r="D32" s="182"/>
+      <c r="E32" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="128">
+      <c r="F32" s="59">
         <v>12</v>
       </c>
-      <c r="G32" s="137" t="s">
+      <c r="G32" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="H32" s="138">
+      <c r="H32" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="139" t="s">
+      <c r="A38" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="140"/>
-      <c r="C38" s="147"/>
-      <c r="D38" s="164" t="s">
+      <c r="B38" s="154"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="165"/>
-      <c r="F38" s="165"/>
-      <c r="G38" s="166"/>
+      <c r="E38" s="169"/>
+      <c r="F38" s="169"/>
+      <c r="G38" s="170"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="143"/>
-      <c r="B39" s="144"/>
-      <c r="C39" s="151"/>
-      <c r="D39" s="152" t="s">
+      <c r="A39" s="156"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="153" t="s">
+      <c r="E39" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="162" t="s">
+      <c r="F39" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="163"/>
+      <c r="G39" s="171"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="157" t="s">
+      <c r="A40" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="158">
+      <c r="B40" s="174">
         <f>-PMT(F40,E40,D40)</f>
         <v>11379731.896831043</v>
       </c>
-      <c r="C40" s="132"/>
-      <c r="D40" s="118">
+      <c r="C40" s="175"/>
+      <c r="D40" s="56">
         <v>65000000</v>
       </c>
-      <c r="E40" s="116">
+      <c r="E40" s="54">
         <v>8</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="172">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="G40" s="156"/>
+      <c r="G40" s="173"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="159" t="s">
+      <c r="A41" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="160">
+      <c r="B41" s="150">
         <f>D40*(F40*POWER(1+F40,E40)/(POWER(1+F40,E40)-1))</f>
         <v>11379731.896831054</v>
       </c>
-      <c r="C41" s="161"/>
+      <c r="C41" s="151"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="169" t="s">
+      <c r="A43" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="170"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="165" t="s">
+      <c r="B43" s="164"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="165"/>
-      <c r="F43" s="165"/>
-      <c r="G43" s="166"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="169"/>
+      <c r="G43" s="170"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="172"/>
-      <c r="B44" s="173"/>
-      <c r="C44" s="174"/>
-      <c r="D44" s="152" t="s">
+      <c r="A44" s="166"/>
+      <c r="B44" s="167"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="153" t="s">
+      <c r="E44" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="162" t="s">
+      <c r="F44" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="163"/>
+      <c r="G44" s="171"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="158">
+      <c r="B45" s="174">
         <f>-PV(F45,E45,D45)</f>
         <v>294.03131444078036</v>
       </c>
-      <c r="C45" s="132"/>
-      <c r="D45" s="118">
+      <c r="C45" s="175"/>
+      <c r="D45" s="56">
         <v>110</v>
       </c>
-      <c r="E45" s="116">
+      <c r="E45" s="54">
         <v>3</v>
       </c>
-      <c r="F45" s="155">
+      <c r="F45" s="172">
         <v>0.06</v>
       </c>
-      <c r="G45" s="156"/>
+      <c r="G45" s="173"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="159" t="s">
+      <c r="A46" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="160">
+      <c r="B46" s="150">
         <f>D45*((POWER(1+F45,E45)-1)/(F45*POWER(1+F45,E45)))</f>
         <v>294.03131444078036</v>
       </c>
-      <c r="C46" s="161"/>
+      <c r="C46" s="151"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="139" t="s">
+      <c r="A49" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="140"/>
-      <c r="C49" s="147"/>
-      <c r="D49" s="148" t="s">
+      <c r="B49" s="154"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="149"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="149"/>
-      <c r="H49" s="150"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="145"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="143"/>
-      <c r="B50" s="144"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="177" t="s">
+      <c r="A50" s="156"/>
+      <c r="B50" s="157"/>
+      <c r="C50" s="158"/>
+      <c r="D50" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="162"/>
-      <c r="F50" s="162" t="s">
+      <c r="E50" s="160"/>
+      <c r="F50" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="G50" s="162"/>
-      <c r="H50" s="154" t="s">
+      <c r="G50" s="160"/>
+      <c r="H50" s="67" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="121" t="s">
+      <c r="A51" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="179" t="s">
+      <c r="B51" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="180">
+      <c r="C51" s="148">
         <f>D51*F51*H51</f>
         <v>1357350.3</v>
       </c>
-      <c r="D51" s="178">
+      <c r="D51" s="162">
         <v>45245010</v>
       </c>
-      <c r="E51" s="87"/>
-      <c r="F51" s="175">
+      <c r="E51" s="132"/>
+      <c r="F51" s="161">
         <v>0.01</v>
       </c>
-      <c r="G51" s="87"/>
-      <c r="H51" s="176">
+      <c r="G51" s="132"/>
+      <c r="H51" s="71">
         <v>3</v>
       </c>
       <c r="O51" t="s">
@@ -5738,30 +5550,30 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="121"/>
-      <c r="B52" s="181"/>
-      <c r="C52" s="182"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
+      <c r="A52" s="152"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="149"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="104"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="183" t="s">
+      <c r="A53" s="141" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="124" t="s">
+      <c r="B53" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="125">
+      <c r="C53" s="58">
         <f>D51*(POWER(1+F51,H51)-1)</f>
         <v>1370969.0480099961</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="184"/>
-      <c r="B54" s="128" t="s">
+      <c r="A54" s="142"/>
+      <c r="B54" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="129">
+      <c r="C54" s="60">
         <f>-FV(F51,H51,,D51)-D51</f>
         <v>1370969.0480099991</v>
       </c>
@@ -5771,71 +5583,71 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="D52:E52"/>
     <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A49:C50"/>
     <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="A43:C44"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="A38:C39"/>
     <mergeCell ref="D38:G38"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="F39:G39"/>
     <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A4:W5"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A15:B16"/>
     <mergeCell ref="C15:H15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
